--- a/data/hotels_by_city/Denver/Denver_shard_139.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_139.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33447-d7621238-Reviews-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Holiday-Inn-Express-Suites-Golden-Denver-Area.h9784662.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1572 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r595389412-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>33447</t>
+  </si>
+  <si>
+    <t>7621238</t>
+  </si>
+  <si>
+    <t>595389412</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This hotel had all the pluses we wanted. A good bed &amp; room with no bugs. The location was nice and you won't have to worry about weird people hanging around outside. It has an indoor pool. The breakfast is good with egg's.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r593770307-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>593770307</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Met Our Needs</t>
+  </si>
+  <si>
+    <t>Our family stayed here while we visited the main attractions in the surrounding area. Because we traveled north and south, this was an ideal location.  The rooms were clean and spacious.  Some of them have a beautiful Mountain View.  The staff was helpful and friendly. Breakfast was delicious, with many choices, especially enjoyed cinnamon rolls and pancakes. They have ample parking. There are restaurants, shopping and gas stations nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r588413539-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>588413539</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Golden.</t>
+  </si>
+  <si>
+    <t>Booked to stay 4 nights which I regret, the hotel was based on an estate with other hotels and you needed to get on very busy freeways to go anywhere. Golden itself was about 5.5 miles away, I thought we were staying in Golden town but alas no.The hotel staff were lovely, the rooms were very clean and spacious.The free breakfast was a challenge,  no room  to sit very busy, ran out of food not the best place I have stayed at. Had I not paid in advance I probably would have moved on.They had problems getting cleaning staff, the one’s I spoke to were really nice especially as we were coming back to the UK so we left a lot of unwanted stuff in the room.   Golden town was very nice, typical old town but lots of nice restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Booked to stay 4 nights which I regret, the hotel was based on an estate with other hotels and you needed to get on very busy freeways to go anywhere. Golden itself was about 5.5 miles away, I thought we were staying in Golden town but alas no.The hotel staff were lovely, the rooms were very clean and spacious.The free breakfast was a challenge,  no room  to sit very busy, ran out of food not the best place I have stayed at. Had I not paid in advance I probably would have moved on.They had problems getting cleaning staff, the one’s I spoke to were really nice especially as we were coming back to the UK so we left a lot of unwanted stuff in the room.   Golden town was very nice, typical old town but lots of nice restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r572458939-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>572458939</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Very disappointed in this Express...</t>
+  </si>
+  <si>
+    <t>We stay at Holiday Inn Express's ALL THE TIME!  This particular one was very disappointing.  We came from the brand new Broomfield Express (excellent), so maybe that was a factor, but from check-in to breakfast to the dated everything, it was kind of a trainwreck....I was checking in and a "homeless"??  man came in and asked the front desk to call the police to come and talk to him...the woman at the desk refused to do it and sent him on his way, but it was a very awkward conversation right in front of me.  I felt very uncomfortable during the whole encounter and didn't set a good tone!  The hotel is older and had a previous hotel brand feel to it...There were kids running up and down the halls at all hours, which we definitely heard - possibly a wedding party staying there??  Breakfast in the morning was a disaster!!!  They were actually out of PLATES!!  It was extremely crowded in the b'fast area so we ended up grabbing something and going up to the room.  I would say the two people working the area were doing their best, but they were out of alot. As a plus, we were very close to Red Rocks and I-70, etc.  In conclusion, I made a mental note to stay at the Hampton Inn next door, next time in Golden.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>We stay at Holiday Inn Express's ALL THE TIME!  This particular one was very disappointing.  We came from the brand new Broomfield Express (excellent), so maybe that was a factor, but from check-in to breakfast to the dated everything, it was kind of a trainwreck....I was checking in and a "homeless"??  man came in and asked the front desk to call the police to come and talk to him...the woman at the desk refused to do it and sent him on his way, but it was a very awkward conversation right in front of me.  I felt very uncomfortable during the whole encounter and didn't set a good tone!  The hotel is older and had a previous hotel brand feel to it...There were kids running up and down the halls at all hours, which we definitely heard - possibly a wedding party staying there??  Breakfast in the morning was a disaster!!!  They were actually out of PLATES!!  It was extremely crowded in the b'fast area so we ended up grabbing something and going up to the room.  I would say the two people working the area were doing their best, but they were out of alot. As a plus, we were very close to Red Rocks and I-70, etc.  In conclusion, I made a mental note to stay at the Hampton Inn next door, next time in Golden.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r571369923-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>571369923</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Golden Weekend</t>
+  </si>
+  <si>
+    <t>I accompanied my daughter-in-law and my two grandkids to a wedding in Golden.  We booked the Holiday Inn Express &amp; Suites - Golden.  The room was clean and we had a refrigerator and microwave.  The grandkids spent a lot of time at the pool.  It was reasonably priced.  The TV had a wide variety of channels to choose from.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r567329135-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>567329135</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Weekend in Golden</t>
+  </si>
+  <si>
+    <t>This hotel was very convenient to the baseball fields at Ulysses Sports Park.  They offered two queen beds and a pull out sofa. The room was nice. The pullout sofa mattress was stained so I was surprised they didn’t give us a mattress pad with the sheet set. The sofa bed sheets also had stains on them. The other two beds and towels were very clean and white.  Fitness center was fine. Pool was heated. Breakfast was chaotic. They were out of hot water, the pancake maker was in high demand and people were everywhere trying to get items. The two small trash cans were in the same area as the food so it seemed like it should be set up to flow better. The two ladies seemed like they were just trying to keep up with the busy weekend. Cinnamon rolls were great!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was very convenient to the baseball fields at Ulysses Sports Park.  They offered two queen beds and a pull out sofa. The room was nice. The pullout sofa mattress was stained so I was surprised they didn’t give us a mattress pad with the sheet set. The sofa bed sheets also had stains on them. The other two beds and towels were very clean and white.  Fitness center was fine. Pool was heated. Breakfast was chaotic. They were out of hot water, the pancake maker was in high demand and people were everywhere trying to get items. The two small trash cans were in the same area as the food so it seemed like it should be set up to flow better. The two ladies seemed like they were just trying to keep up with the busy weekend. Cinnamon rolls were great!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r556520021-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>556520021</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Not Ideally Located</t>
+  </si>
+  <si>
+    <t>This hotel is in an industrial park type area, near the mining engineering school so the dining options are limited. When I arrived and checked in, the TV in my room didn't work. They did upgrade me after I asked for a different room so I did end up with a really nice room. The lady that came on for the overnight shift was really responsive to my needs, the guy before her, not so much. In the end it was all good. The free breakfast is good with a variety of choice. Overall, I was satisfied with the amenities and service.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is in an industrial park type area, near the mining engineering school so the dining options are limited. When I arrived and checked in, the TV in my room didn't work. They did upgrade me after I asked for a different room so I did end up with a really nice room. The lady that came on for the overnight shift was really responsive to my needs, the guy before her, not so much. In the end it was all good. The free breakfast is good with a variety of choice. Overall, I was satisfied with the amenities and service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r545084519-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>545084519</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights here on my visit to Denver. It's a friendly. Very clean and comfortable hotel. Pool and spa facilities available. It was very well priced. There is a very convenient light rail service about 15 to 20 min walk from the hotel that will get you to Denver city centre in about 25 min for $9 all day pass on the rail service. The city centre main street is 16th street and a free bus runs up and down this street all day. Golden and the holiday inn is a very worthwhile location for any visit to Denver and the rocky mountains.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights here on my visit to Denver. It's a friendly. Very clean and comfortable hotel. Pool and spa facilities available. It was very well priced. There is a very convenient light rail service about 15 to 20 min walk from the hotel that will get you to Denver city centre in about 25 min for $9 all day pass on the rail service. The city centre main street is 16th street and a free bus runs up and down this street all day. Golden and the holiday inn is a very worthwhile location for any visit to Denver and the rocky mountains.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r540540923-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>540540923</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Room was cute and clean. The free wifi was high speed and I was easily able to stream Netflix. Front desk staff were super nice and gave us great suggestions for places to eat and local attractions. Highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was cute and clean. The free wifi was high speed and I was easily able to stream Netflix. Front desk staff were super nice and gave us great suggestions for places to eat and local attractions. Highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r531351526-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>531351526</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Clean, new</t>
+  </si>
+  <si>
+    <t>Excellent experience, clean and bright.  Quiet location, convenient to Red Rocks.  Good breakfast.  Staff was all very pleasant and engaged.  Newer facility.  We were greeted upon arrival and offered an early check inMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Excellent experience, clean and bright.  Quiet location, convenient to Red Rocks.  Good breakfast.  Staff was all very pleasant and engaged.  Newer facility.  We were greeted upon arrival and offered an early check inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r530038255-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>530038255</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfy room, easy access, not much around for walkers.</t>
+  </si>
+  <si>
+    <t>I picked this hotel for its location, as I was having events in Evergreen Golden and around, and my usual spot was fully booked. The hotel is new, clean, comfortable, and the staff at the breakfast room is very friendly. Breakfast is quite ordinary, the type you see with most Quality Inn, Comfort suites, and all. It is minutes only from 1-70 so its easy to find. You won't find anything stylish around it though, more of the style of Home Depot and fast food restaurants. If you want to walk from there to a stylish downtown, pick something else, but if you want ease and clean without the high fees, that is the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I picked this hotel for its location, as I was having events in Evergreen Golden and around, and my usual spot was fully booked. The hotel is new, clean, comfortable, and the staff at the breakfast room is very friendly. Breakfast is quite ordinary, the type you see with most Quality Inn, Comfort suites, and all. It is minutes only from 1-70 so its easy to find. You won't find anything stylish around it though, more of the style of Home Depot and fast food restaurants. If you want to walk from there to a stylish downtown, pick something else, but if you want ease and clean without the high fees, that is the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r524208393-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>524208393</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Typical Holiday Inn Express.....which means...great!</t>
+  </si>
+  <si>
+    <t>Stayed here two nights while attending a concert at Red Rocks, which is pretty much down the road from this hotel, so if planning on attending a concert there, this hotel is a great choice! We've stayed in a lot of Holiday Inn Express hotels and this one met or exceeded the high expectations we've come to expect from this chain. Room was clean and bright, lobby and breakfast area were clean and well kept. Breakfast was good, and we're big fans of the cinnamon rolls! There's quite a bit of retail shopping around like a Kohls, PetCo, a big golf store, so there's something to do besides venture into the mountains. Downtown Golden is only about a 10 minute drive and there's lots of cute shops and great restaurants. Overall, very pleased with our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here two nights while attending a concert at Red Rocks, which is pretty much down the road from this hotel, so if planning on attending a concert there, this hotel is a great choice! We've stayed in a lot of Holiday Inn Express hotels and this one met or exceeded the high expectations we've come to expect from this chain. Room was clean and bright, lobby and breakfast area were clean and well kept. Breakfast was good, and we're big fans of the cinnamon rolls! There's quite a bit of retail shopping around like a Kohls, PetCo, a big golf store, so there's something to do besides venture into the mountains. Downtown Golden is only about a 10 minute drive and there's lots of cute shops and great restaurants. Overall, very pleased with our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r513922127-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>513922127</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here with our family of 5 in a 2 queen suite with sofa bed.  The room was spacious as was the bathroom and it was very quiet.  Breakfast included scrambled eggs, two kinds of sausage, gravy, omelets, biscuits, toast, muffins, cold cereal, oatmeal, coffee and juices, cinnamon rolls (yummy!), yogurt, pancakes and syrup and fresh fruit.The down side is that the beds were just way too hard.  Had trouble sleeping and woke up with a bad back ache.  The toilet paper was ridiculously thin - even for a hotel.  There wasn't enough room to get to the bathroom when the sofa bed was opened.  That made for a tricky trip to the bathroom in the middle of the night.  The door to the room wouldn't close properly.At least it was quiet and on the other side of Denver to aid us in our drive the following day.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here with our family of 5 in a 2 queen suite with sofa bed.  The room was spacious as was the bathroom and it was very quiet.  Breakfast included scrambled eggs, two kinds of sausage, gravy, omelets, biscuits, toast, muffins, cold cereal, oatmeal, coffee and juices, cinnamon rolls (yummy!), yogurt, pancakes and syrup and fresh fruit.The down side is that the beds were just way too hard.  Had trouble sleeping and woke up with a bad back ache.  The toilet paper was ridiculously thin - even for a hotel.  There wasn't enough room to get to the bathroom when the sofa bed was opened.  That made for a tricky trip to the bathroom in the middle of the night.  The door to the room wouldn't close properly.At least it was quiet and on the other side of Denver to aid us in our drive the following day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r512696758-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>512696758</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We wanted to stop in the Denver area before continuing across the Rockies.  This HIE was a great place to stay.  We wanted to be on the western edge of Denver, near the interstate, but also near restaurants.  This room was comfortable.  There was a side table for the armchair, which was very appreciated.  There was also a nice kitchenette area.  There could have been a few more power outlets, as we both travel with several devices.  The window did open a little, which allowed us to have some fresh air.  We'd pick this hotel again if we're travelling this way.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>We wanted to stop in the Denver area before continuing across the Rockies.  This HIE was a great place to stay.  We wanted to be on the western edge of Denver, near the interstate, but also near restaurants.  This room was comfortable.  There was a side table for the armchair, which was very appreciated.  There was also a nice kitchenette area.  There could have been a few more power outlets, as we both travel with several devices.  The window did open a little, which allowed us to have some fresh air.  We'd pick this hotel again if we're travelling this way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r511445137-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>511445137</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Disappointing Service</t>
+  </si>
+  <si>
+    <t>Generally nice property, but service orientation is very poor. Check in experience was ho-hum, but breakfast was real disappointment. Had to depart by 6:00 just as formal breakfast hours began so got down there about 5:45 expecting to be able to grab some cold items...cereal, yogurt, etc. But, rather I was admonished to stay away until 6:00 even though items were available. Actually thought she was kidding, but she made it clear she was not. My experience is most hotels will more often go out of their way to support early departers, but just the opposite with this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>Generally nice property, but service orientation is very poor. Check in experience was ho-hum, but breakfast was real disappointment. Had to depart by 6:00 just as formal breakfast hours began so got down there about 5:45 expecting to be able to grab some cold items...cereal, yogurt, etc. But, rather I was admonished to stay away until 6:00 even though items were available. Actually thought she was kidding, but she made it clear she was not. My experience is most hotels will more often go out of their way to support early departers, but just the opposite with this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r506613263-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>506613263</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>First stop on our road trip</t>
+  </si>
+  <si>
+    <t>Having landed at Denver airport at 17.30 we collected our car and sailed through to Golden. The hotel is clean and quiet. The staff are very helpful and pleasant. The breakfast plentiful and varied. We used the pool at 7am and felt right at home. A great start to our holiday. Thank you HIE.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r506580924-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>506580924</t>
+  </si>
+  <si>
+    <t>Dissappointing</t>
+  </si>
+  <si>
+    <t>We were on a vacation road trip and stayed in many different hotels.  Never before had we been told that the hotel had decided not to honor AARP senior discounts!!!  Had we known this we would have gone elsewhere.  Will not be staying at any of their hotels ever again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>We were on a vacation road trip and stayed in many different hotels.  Never before had we been told that the hotel had decided not to honor AARP senior discounts!!!  Had we known this we would have gone elsewhere.  Will not be staying at any of their hotels ever again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r502830377-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>502830377</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Floors and walls are paper thin.</t>
+  </si>
+  <si>
+    <t>The hotel was overall nice unless you plan on sleeping here.  The walls and floors are paper thin which means you can hear every movement of the rooms around and above you.  We had been at a concert so we were tired.  A family of 6 was above us.  The kids started running and jumping off beds at 6:30am.  I called down to the front desk, when they finally answered they said  they would tale care  of it.  It made it worse.  When I walked to the front desk the night guy basically said "I'm the night guy, there is nothing I can do" so we left the hotel exhausted.  Given the number of families here, it will be an issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was overall nice unless you plan on sleeping here.  The walls and floors are paper thin which means you can hear every movement of the rooms around and above you.  We had been at a concert so we were tired.  A family of 6 was above us.  The kids started running and jumping off beds at 6:30am.  I called down to the front desk, when they finally answered they said  they would tale care  of it.  It made it worse.  When I walked to the front desk the night guy basically said "I'm the night guy, there is nothing I can do" so we left the hotel exhausted.  Given the number of families here, it will be an issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r491919038-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>491919038</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean hotel that was perfect for what we needed which was a place to stay after getting in late from the airport. It was easy to park (lot was cleared of all snow/ice), great location surrounded by everything we needed- restaurants, gas and anything else we might have needed. Breakfast was great. We will definitely stay here again if we fly in late again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r491818820-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>491818820</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Golden!</t>
+  </si>
+  <si>
+    <t>Hotel is accessible to Golden and Denver, Lookout Mountain, and easy access to highway and mountain drives. Clean rooms, pool and hot tub clean and indoors, breakfast was good (eggs, bacon, sausage, biscuits/gravy, pancakes, fruits, cereal, etc). 4 stars instead of 5 because our door would not latch without us assisting it, air condioner rattled, and ceiling is thin as people above walked around all hours of the night. We will return though on future trips!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r488821846-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>488821846</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was the best. It was so clean, staff was very friendly, and the beds were so comfortable. We came for a concert at red rocks, and will most likely pick this hotel over the rest for our future stays in Denver (we come about once a month) :) </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r485744008-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>485744008</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, central location</t>
+  </si>
+  <si>
+    <t>Chose this hotel for a visit to Colorado School of Mines. Easy to get to from DEN airport, about 35 mins. Hotel common areas and rooms very clean, staff was friendly and the breakfast had some warm options (scrambled eggs, sausage, warm cinnamon buns). The location, while central (easy access to I-70 and shopping), is located near a Home Depot and Pet Smart. Drive to downtown Golden is about 10 mins. No charge for parking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r484785487-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>484785487</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and quiet</t>
+  </si>
+  <si>
+    <t>The staff was excellent and collected a hydration pack I left outside my room. It was late and instead of disturbing me kept the bag for safe keeping until morning. The breakfast was good and plentiful and Holiday Inn is serving some things that are more healthy.  The breakfast room was clean and comfortable.  I asked for a ground floor room and they were happy to give me one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>The staff was excellent and collected a hydration pack I left outside my room. It was late and instead of disturbing me kept the bag for safe keeping until morning. The breakfast was good and plentiful and Holiday Inn is serving some things that are more healthy.  The breakfast room was clean and comfortable.  I asked for a ground floor room and they were happy to give me one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r482223164-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>482223164</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>10 stars- was amazing</t>
+  </si>
+  <si>
+    <t>EVERYONE was friendly &amp; talkative! The room was spacious &amp; stayed cool. Indoor warm pool. Free parking! The breakfast was AWESOME! They had SO many breakfast options &amp; it's FREE! I would definitely recommend &amp; stay again!!</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r476605008-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>476605008</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Clean and close to I-70</t>
+  </si>
+  <si>
+    <t>First, Lindsay at the front desk was awesome! Friendly, helpful, and customer service oriented!We stayed here so we could easily get up early and go the to Easter sunrise service at Red Rocks. The room was comfortable, newer, and clean. We stayed in the King nonsmoking suite and the extra sitting area was nice. The suite isn't a separate room, but we didn't need it to be. The location is a few miles from I-70 and another 1.5 miles off I-70 the other direction to Red Rocks. It took less than 10 minutes to get there.The breakfast was outstanding! Everything was delicious. Breakfast was open until 9:30am so we had time to get back after the service. There was a nice variety of egg white omelets, eggs, biscuits and gravy, sausage, AWESOME cinnamon rolls, pancakes, coffee, juice, oatmeal...plenty options for anyone.It's near a few restaurants and Home Depot. It's a little hard to see on the main road so pay attention to phone directions.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>First, Lindsay at the front desk was awesome! Friendly, helpful, and customer service oriented!We stayed here so we could easily get up early and go the to Easter sunrise service at Red Rocks. The room was comfortable, newer, and clean. We stayed in the King nonsmoking suite and the extra sitting area was nice. The suite isn't a separate room, but we didn't need it to be. The location is a few miles from I-70 and another 1.5 miles off I-70 the other direction to Red Rocks. It took less than 10 minutes to get there.The breakfast was outstanding! Everything was delicious. Breakfast was open until 9:30am so we had time to get back after the service. There was a nice variety of egg white omelets, eggs, biscuits and gravy, sausage, AWESOME cinnamon rolls, pancakes, coffee, juice, oatmeal...plenty options for anyone.It's near a few restaurants and Home Depot. It's a little hard to see on the main road so pay attention to phone directions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r474224944-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>474224944</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Great night stay</t>
+  </si>
+  <si>
+    <t>Everything was clean, front desk was friendly.  There wasn't a lot of noise from the hall or neighboring rooms, seemed like good construction.  Nothing to complain about, we would stay here again if we were in the area.  Breakfast is good too.  We got there too late to check out the pool or hot tub:(MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Everything was clean, front desk was friendly.  There wasn't a lot of noise from the hall or neighboring rooms, seemed like good construction.  Nothing to complain about, we would stay here again if we were in the area.  Breakfast is good too.  We got there too late to check out the pool or hot tub:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r471367746-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>471367746</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Great HI Express</t>
+  </si>
+  <si>
+    <t>Nice place to stop for overnight on way up to ski. Easy to find 2 minutes off freeway. Clean, quiet and very comfortable bed. Made for a good night's sleep.  Breakfast was above average and a very friendly efficient service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Nice place to stop for overnight on way up to ski. Easy to find 2 minutes off freeway. Clean, quiet and very comfortable bed. Made for a good night's sleep.  Breakfast was above average and a very friendly efficient service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r466383972-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>466383972</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Quick Get Away</t>
+  </si>
+  <si>
+    <t>This is a fairly new property. Rooms and common areas are nicely decorated. Single room I had was spacious and the bed was really comfortable. Bathroom nice size and equipped with toiletries if you forgot something. Also quiet during the night so could sleep well. I have been in places where you could here doors slam in other parts of the building and people walking and talking. Main thing for me was the awesome complimentary breakfast. Nice assortment of beverages, rolls/Danish and hot food. Staff manning the breakfast are really friendly. Would highly recommend if needing a place to stay in the area. Conveniently located off of 70 and near restaurants. Close to downtown Golden.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>This is a fairly new property. Rooms and common areas are nicely decorated. Single room I had was spacious and the bed was really comfortable. Bathroom nice size and equipped with toiletries if you forgot something. Also quiet during the night so could sleep well. I have been in places where you could here doors slam in other parts of the building and people walking and talking. Main thing for me was the awesome complimentary breakfast. Nice assortment of beverages, rolls/Danish and hot food. Staff manning the breakfast are really friendly. Would highly recommend if needing a place to stay in the area. Conveniently located off of 70 and near restaurants. Close to downtown Golden.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r465063376-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>465063376</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>New and very nice hotel, but poor housekeeping and inoperative guest laundry</t>
+  </si>
+  <si>
+    <t>Spent 7 nights at the hotel. Check-in by a young man was very nice and friendly, he informed me I was upgraded to a suite, which was very nice of them. The whole property still appears very new and in good shape. Same goes for the 2-queen suite, which was spacious and in great shape with a nice view of downtown Golden and Lookout Mountain.
+Breakfast was always ready on time and the two breakfast ladies went out of their way to please you in all aspects, outstanding breakfast service. Needed to use the business center several times and everything worked as it was suppose to. 
+The hotel is very conveniently located if your errands are spread between Denver, Boulder and Summit County. I never got caught in any traffic jam going places. 
+And now the two things, which ruined the otherwise great impression. First, the housekeeping. It was just terrible. They never vacuumed the suite in 7 nights, never cleaned the bathroom floor, never wiped the dust of the furniture. There wasn't a single day that they wouldn't forget to replenish items. They forgot in-room coffee several times, then the body lotion, next day the shower rag, next day wash cloths, then make-up remover, the shampoo ... It seemed they are totally disorganized and do not have neither follow a check-list when servicing a stay-over. The housekeeping staff should really get a thorough training and then oversight as this...Spent 7 nights at the hotel. Check-in by a young man was very nice and friendly, he informed me I was upgraded to a suite, which was very nice of them. The whole property still appears very new and in good shape. Same goes for the 2-queen suite, which was spacious and in great shape with a nice view of downtown Golden and Lookout Mountain.Breakfast was always ready on time and the two breakfast ladies went out of their way to please you in all aspects, outstanding breakfast service. Needed to use the business center several times and everything worked as it was suppose to. The hotel is very conveniently located if your errands are spread between Denver, Boulder and Summit County. I never got caught in any traffic jam going places. And now the two things, which ruined the otherwise great impression. First, the housekeeping. It was just terrible. They never vacuumed the suite in 7 nights, never cleaned the bathroom floor, never wiped the dust of the furniture. There wasn't a single day that they wouldn't forget to replenish items. They forgot in-room coffee several times, then the body lotion, next day the shower rag, next day wash cloths, then make-up remover, the shampoo ... It seemed they are totally disorganized and do not have neither follow a check-list when servicing a stay-over. The housekeeping staff should really get a thorough training and then oversight as this is far below the chain's standard.The second huge blow was the fact that coin operated guest laundry was out of order. I checked if there was one on their webpage before booking and there was no information that it was not working. Staying there for outdoor activities I was really counting on using it. They offered no alternative, there was a sign "sorry for any inconvenience" on the door and that was it. I think installing just one washer and dryer in such a large and new hotel is odd (not to say ridiculous) in the first place. But then if they break down, I would expect a quick repair service. Well, wrong, for the whole duration of my 7-night stay the guest laundry remained out of order. It is too bad these two nuisances really ruin the overall nice impression and friendly attitude of staff. As I am in the area often I would probably stay again, hoping they improve in these fields.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Spent 7 nights at the hotel. Check-in by a young man was very nice and friendly, he informed me I was upgraded to a suite, which was very nice of them. The whole property still appears very new and in good shape. Same goes for the 2-queen suite, which was spacious and in great shape with a nice view of downtown Golden and Lookout Mountain.
+Breakfast was always ready on time and the two breakfast ladies went out of their way to please you in all aspects, outstanding breakfast service. Needed to use the business center several times and everything worked as it was suppose to. 
+The hotel is very conveniently located if your errands are spread between Denver, Boulder and Summit County. I never got caught in any traffic jam going places. 
+And now the two things, which ruined the otherwise great impression. First, the housekeeping. It was just terrible. They never vacuumed the suite in 7 nights, never cleaned the bathroom floor, never wiped the dust of the furniture. There wasn't a single day that they wouldn't forget to replenish items. They forgot in-room coffee several times, then the body lotion, next day the shower rag, next day wash cloths, then make-up remover, the shampoo ... It seemed they are totally disorganized and do not have neither follow a check-list when servicing a stay-over. The housekeeping staff should really get a thorough training and then oversight as this...Spent 7 nights at the hotel. Check-in by a young man was very nice and friendly, he informed me I was upgraded to a suite, which was very nice of them. The whole property still appears very new and in good shape. Same goes for the 2-queen suite, which was spacious and in great shape with a nice view of downtown Golden and Lookout Mountain.Breakfast was always ready on time and the two breakfast ladies went out of their way to please you in all aspects, outstanding breakfast service. Needed to use the business center several times and everything worked as it was suppose to. The hotel is very conveniently located if your errands are spread between Denver, Boulder and Summit County. I never got caught in any traffic jam going places. And now the two things, which ruined the otherwise great impression. First, the housekeeping. It was just terrible. They never vacuumed the suite in 7 nights, never cleaned the bathroom floor, never wiped the dust of the furniture. There wasn't a single day that they wouldn't forget to replenish items. They forgot in-room coffee several times, then the body lotion, next day the shower rag, next day wash cloths, then make-up remover, the shampoo ... It seemed they are totally disorganized and do not have neither follow a check-list when servicing a stay-over. The housekeeping staff should really get a thorough training and then oversight as this is far below the chain's standard.The second huge blow was the fact that coin operated guest laundry was out of order. I checked if there was one on their webpage before booking and there was no information that it was not working. Staying there for outdoor activities I was really counting on using it. They offered no alternative, there was a sign "sorry for any inconvenience" on the door and that was it. I think installing just one washer and dryer in such a large and new hotel is odd (not to say ridiculous) in the first place. But then if they break down, I would expect a quick repair service. Well, wrong, for the whole duration of my 7-night stay the guest laundry remained out of order. It is too bad these two nuisances really ruin the overall nice impression and friendly attitude of staff. As I am in the area often I would probably stay again, hoping they improve in these fields.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r455633348-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>455633348</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Comfortable place to stay!</t>
+  </si>
+  <si>
+    <t>I was there for an extended weekend and the service there was excellent. The room I stayed in was clean and comfortable. Typically I have problems sleeping through the night uninterrupted- but this bed was so comfortable I slept soundly every night. There is a morning breakfast bar, served by Arlene and her colleagues-- good variety of food. The staff was all friendly and informative. A place I would return if visiting the area again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2017</t>
+  </si>
+  <si>
+    <t>I was there for an extended weekend and the service there was excellent. The room I stayed in was clean and comfortable. Typically I have problems sleeping through the night uninterrupted- but this bed was so comfortable I slept soundly every night. There is a morning breakfast bar, served by Arlene and her colleagues-- good variety of food. The staff was all friendly and informative. A place I would return if visiting the area again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r435993219-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>435993219</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Parents weekend at CSM</t>
+  </si>
+  <si>
+    <t>Our usual hotel on Washington Street was full so we stayed at Holiday Inn express off Colfax Rd. Brand new, half the cost, very quiet and comfortable. The room was spacious and had a refrigerator and microwave. Excellent breakfast that extended to noon on the weekend. The front desk found an early check in room for us, which we appreciated because we flew in overnight from AK. The hotel is a 10 minute drive to the school. We will definitely stay here again when we visit our son.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Our usual hotel on Washington Street was full so we stayed at Holiday Inn express off Colfax Rd. Brand new, half the cost, very quiet and comfortable. The room was spacious and had a refrigerator and microwave. Excellent breakfast that extended to noon on the weekend. The front desk found an early check in room for us, which we appreciated because we flew in overnight from AK. The hotel is a 10 minute drive to the school. We will definitely stay here again when we visit our son.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r434596570-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>434596570</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Wonderful stay, very quiet, very nice front desk associates and the sweetest most friendly breakfast attendant, Arlene, she was so nice! Love this Hotel and the beds and room were very comfortable and beautiful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Wonderful stay, very quiet, very nice front desk associates and the sweetest most friendly breakfast attendant, Arlene, she was so nice! Love this Hotel and the beds and room were very comfortable and beautiful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r433401097-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>433401097</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Just a one night stay</t>
+  </si>
+  <si>
+    <t>We typically have no problems with HIE properties and this one was no different.  Nice personnel, good breakfast and comfortable room.  Stayed there after flying into to Denver on our way to Rocky Mountain National Park.   Would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>We typically have no problems with HIE properties and this one was no different.  Nice personnel, good breakfast and comfortable room.  Stayed there after flying into to Denver on our way to Rocky Mountain National Park.   Would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r426507876-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>426507876</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>National Parks Trip</t>
+  </si>
+  <si>
+    <t>Decided to stay here because of previous reviews. Front desk was welcoming, was oriented to breakfast area and time, location of pool and workout room which doesn't happen often when checking in to hotels. Beds were comfortable and clean, room was clean. Bathroom was spacious. And it was nice to have enough outlets especially on the nightstand. We would stay here again. Wonderful breakfast selection and hostess.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Decided to stay here because of previous reviews. Front desk was welcoming, was oriented to breakfast area and time, location of pool and workout room which doesn't happen often when checking in to hotels. Beds were comfortable and clean, room was clean. Bathroom was spacious. And it was nice to have enough outlets especially on the nightstand. We would stay here again. Wonderful breakfast selection and hostess.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r423690509-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>423690509</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Another Golden stay</t>
+  </si>
+  <si>
+    <t>We have e joyed this hotel on two prior occasions.  The staff is welcoming, attentive, and caring.  My husband was having some altitude sickness, and the staff were so responsive and concerned about him.  The two women who work the breakfasts were extra kind and helpful in meeting the needs in our little grandson, and the front desk staff printed out two maps to help us find Lions Park and the airport. Our room was spotless upon check-in, and the maid gave us extra soft towels upon request.  My only reservation is that HIE locations do not offer in-room safes, which is a giant pain bc we have to carry our jewelry, electronics, and other valuables with us.  This hotel is a great location with ample, well-lighted parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>We have e joyed this hotel on two prior occasions.  The staff is welcoming, attentive, and caring.  My husband was having some altitude sickness, and the staff were so responsive and concerned about him.  The two women who work the breakfasts were extra kind and helpful in meeting the needs in our little grandson, and the front desk staff printed out two maps to help us find Lions Park and the airport. Our room was spotless upon check-in, and the maid gave us extra soft towels upon request.  My only reservation is that HIE locations do not offer in-room safes, which is a giant pain bc we have to carry our jewelry, electronics, and other valuables with us.  This hotel is a great location with ample, well-lighted parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r419637711-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>419637711</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Avoid room #110 like the plague</t>
+  </si>
+  <si>
+    <t>I stayed in room #110 and got four hours sleep. I was worried it was going to be a bad room the moment I saw where it was: ground floor, next to the elevators, steps away from the lobby and breakfast area. Stupidly, i still moved into the room and tried to fall asleep at ten. The next several hours had a constant parade of merry guest coming back to the hotel from wherever they went. All chatty and loud waiting for the elevators or just milling around the lobby: I don't blame them. From 2 AM until 5 AM the night was only interrupted by every phone call that came to the front desk. Then the breakfast set up started. Never, ever, accept room #110. I blame the hotel for cramming a room in a place that's only suitable for people with a hearing aid that can be switched off.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in room #110 and got four hours sleep. I was worried it was going to be a bad room the moment I saw where it was: ground floor, next to the elevators, steps away from the lobby and breakfast area. Stupidly, i still moved into the room and tried to fall asleep at ten. The next several hours had a constant parade of merry guest coming back to the hotel from wherever they went. All chatty and loud waiting for the elevators or just milling around the lobby: I don't blame them. From 2 AM until 5 AM the night was only interrupted by every phone call that came to the front desk. Then the breakfast set up started. Never, ever, accept room #110. I blame the hotel for cramming a room in a place that's only suitable for people with a hearing aid that can be switched off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r413365227-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>413365227</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Concert in Red Rocks</t>
+  </si>
+  <si>
+    <t>We chose this hotel for its cleanliness and closeness to Red Rocks amphitheater. We will certainly stay here again. Less than 10 minutes to the venue. Downside is there is not much open around hotel after 10pm. Like food or drinks. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>We chose this hotel for its cleanliness and closeness to Red Rocks amphitheater. We will certainly stay here again. Less than 10 minutes to the venue. Downside is there is not much open around hotel after 10pm. Like food or drinks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r410583263-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>410583263</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Better than expected...will stay again</t>
+  </si>
+  <si>
+    <t>I recently had a girls trip to Red Rocks and we chose to stay here. The hotel was very clean, the rooms were spacious, clean and quiet. The staff was always pleasant, even when we arrived at 3am. The morning breakfast was more than expected and the gals cleaning up were very sweet and cheerful. This hotel is a little bit out of the way but in this area its to be expected. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2016</t>
+  </si>
+  <si>
+    <t>I recently had a girls trip to Red Rocks and we chose to stay here. The hotel was very clean, the rooms were spacious, clean and quiet. The staff was always pleasant, even when we arrived at 3am. The morning breakfast was more than expected and the gals cleaning up were very sweet and cheerful. This hotel is a little bit out of the way but in this area its to be expected. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r407864418-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>407864418</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not really in Golden </t>
+  </si>
+  <si>
+    <t>I stayed here recently for 4 nights on business.  I always stay at Holiday Inn Express when possible as I'm a member of their frequent club and also they are consistently acceptable lodging.  This location turns out to be kind of in the middle of nowhere, about halfway between Lakewood and Golden, so be prepared to drive anywhere you need to go.  The only food by the hotel is a Jack-in-the-Box, so be prepared to drive 5+ miles for real food as well.  This would be a good location to stay if you were attending a concert at nearby Red Ricks Amphitheater or otherwise wanted to check out Red Ricks park (it's free and open except on afternoons/evenings they are having concerts).The hotel itself is like all other Holiday Inn Express - this is a newer one so everything in good shape.  Free breakfast is same mediocre fare they have at all HIE's - kids enjoy it and it's simple for me n work travel but it's certainly nothing special.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here recently for 4 nights on business.  I always stay at Holiday Inn Express when possible as I'm a member of their frequent club and also they are consistently acceptable lodging.  This location turns out to be kind of in the middle of nowhere, about halfway between Lakewood and Golden, so be prepared to drive anywhere you need to go.  The only food by the hotel is a Jack-in-the-Box, so be prepared to drive 5+ miles for real food as well.  This would be a good location to stay if you were attending a concert at nearby Red Ricks Amphitheater or otherwise wanted to check out Red Ricks park (it's free and open except on afternoons/evenings they are having concerts).The hotel itself is like all other Holiday Inn Express - this is a newer one so everything in good shape.  Free breakfast is same mediocre fare they have at all HIE's - kids enjoy it and it's simple for me n work travel but it's certainly nothing special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r404330773-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>404330773</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We had a king suite which was quite spacious. Free breakfast which was very good. Don't miss out on the cinnamon rolls. Seems like new construction and highly recommended. Staff was very friendly and helpful. Why is Trip Advisor making me write more words to accept my review?MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>We had a king suite which was quite spacious. Free breakfast which was very good. Don't miss out on the cinnamon rolls. Seems like new construction and highly recommended. Staff was very friendly and helpful. Why is Trip Advisor making me write more words to accept my review?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r403693073-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>403693073</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Clean and great!</t>
+  </si>
+  <si>
+    <t>This hotel was perfect, it was in a great location for the Red Rocks and it didn't take long to drive downtown Golden. The hotel was clean, crisp and up to date! Staff was friendly and courtesy as well. I would stay here again in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was perfect, it was in a great location for the Red Rocks and it didn't take long to drive downtown Golden. The hotel was clean, crisp and up to date! Staff was friendly and courtesy as well. I would stay here again in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r400605320-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>400605320</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Very happy with this hotel!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel to attend a concert at Red Rocks Amphitheatre. Our room was large and clean and quite comfortable! The complimentary breakfast was very good! There was plenty of free parking and the location was ideal.....a short drive to plenty of restaurants and shopping! My only complaint is that our room was not available until after 4:00 on the day we checked in. To be fair though, we were there on the weekend of the Buffalo Bill Festival...a very busy time in Golden! The staff was super friendly and very apologetic about the delay. :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel to attend a concert at Red Rocks Amphitheatre. Our room was large and clean and quite comfortable! The complimentary breakfast was very good! There was plenty of free parking and the location was ideal.....a short drive to plenty of restaurants and shopping! My only complaint is that our room was not available until after 4:00 on the day we checked in. To be fair though, we were there on the weekend of the Buffalo Bill Festival...a very busy time in Golden! The staff was super friendly and very apologetic about the delay. :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r397540658-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>397540658</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>New and Nice</t>
+  </si>
+  <si>
+    <t>I enjoyed my 2 night stay here.  The Hotel is clean, serve a nice breakfast, have pool and workout room and the rooms are very nice.  Excellent customer service by the front desk and they have snacks and food in a very very small snack area.  I would stay again, the price was a little high, around 200 a night but I was in peak season.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>I enjoyed my 2 night stay here.  The Hotel is clean, serve a nice breakfast, have pool and workout room and the rooms are very nice.  Excellent customer service by the front desk and they have snacks and food in a very very small snack area.  I would stay again, the price was a little high, around 200 a night but I was in peak season.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r395098756-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>395098756</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Well, the toilet paper was on backwards...</t>
+  </si>
+  <si>
+    <t>...but that's literally my only "complaint" Ha! Stayed on the way home during a family road trip. Clean, super friendly staff (Alrene in dining room is SO nice!) modern, comfortable, free-breakfast, and very affordable. Enjoyed my stay so much that I changed a reservation to another Holiday Inn Express in another town on the way home. Would definitely stay again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>...but that's literally my only "complaint" Ha! Stayed on the way home during a family road trip. Clean, super friendly staff (Alrene in dining room is SO nice!) modern, comfortable, free-breakfast, and very affordable. Enjoyed my stay so much that I changed a reservation to another Holiday Inn Express in another town on the way home. Would definitely stay again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r391913630-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>391913630</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Quick stay</t>
+  </si>
+  <si>
+    <t>We stayed here so we didn't have to drive into the mountains at night.  The kids enjoyed the pool although it closed fairly early.  The rooms were spacious and clean.  The breakfast is your typical Holiday Inn breakfast.  They were out of many items when we were there (there was apparently an issue with a delivery they were suppose to have).  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here so we didn't have to drive into the mountains at night.  The kids enjoyed the pool although it closed fairly early.  The rooms were spacious and clean.  The breakfast is your typical Holiday Inn breakfast.  They were out of many items when we were there (there was apparently an issue with a delivery they were suppose to have).  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r389231250-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>389231250</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better than expected </t>
+  </si>
+  <si>
+    <t>I used my points to book this room and upon arrival we were greeted by Matthew whom was wonderful to us. He helped us out with locations and questions we had about going to red rocks. Ended up with an upgraded room which is fabulous. the wifi is ok, rooms are spacious and comfortable. bed is comfortable with king size pillows. Shower is very nice for pressure and temperature. hotel is new and walking distance to rikkis pizza by the slice and it's amazing!  Love this hotel and I'd stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>I used my points to book this room and upon arrival we were greeted by Matthew whom was wonderful to us. He helped us out with locations and questions we had about going to red rocks. Ended up with an upgraded room which is fabulous. the wifi is ok, rooms are spacious and comfortable. bed is comfortable with king size pillows. Shower is very nice for pressure and temperature. hotel is new and walking distance to rikkis pizza by the slice and it's amazing!  Love this hotel and I'd stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r387381414-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>387381414</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Business trip and all hotels booked out</t>
+  </si>
+  <si>
+    <t>This was the only hotel room this time I found anywhere close to the Coors Brewery where I work. It is not a hotel I am staying in usually and was very positively surprised. Very nice and efficient staff at check in (with a lot of people checking in at the same time) Nice, big, clean room with Microwave and Refrigerator. Good cable TV choices. Free WiFi. Good working, quiet AirCon. Plenty of parking. Safe Neighborhood. Free Breakfast. This was the best free Breakfast I had in a long time. Lots of choices. And both mornings the person who prepared the food was very nice. I really recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>This was the only hotel room this time I found anywhere close to the Coors Brewery where I work. It is not a hotel I am staying in usually and was very positively surprised. Very nice and efficient staff at check in (with a lot of people checking in at the same time) Nice, big, clean room with Microwave and Refrigerator. Good cable TV choices. Free WiFi. Good working, quiet AirCon. Plenty of parking. Safe Neighborhood. Free Breakfast. This was the best free Breakfast I had in a long time. Lots of choices. And both mornings the person who prepared the food was very nice. I really recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r386188373-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>386188373</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>It's OK for the area</t>
+  </si>
+  <si>
+    <t>This place has both pros and cons First off, the pros: New hotel(opened Sept 2015)Indoor PoolFree BreakfastLocated next to Home Depot, Petco, and I-70Now, the cons:We reserved the room on the day we arrived(we stayed only 1 night) and the price was around $200! I understand you're a new hotel, but do you have 2 queen rooms with a sofabed? Because our room was a King Suite with a hallway. Otherwise a good place to stay, but do some research before you go.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>This place has both pros and cons First off, the pros: New hotel(opened Sept 2015)Indoor PoolFree BreakfastLocated next to Home Depot, Petco, and I-70Now, the cons:We reserved the room on the day we arrived(we stayed only 1 night) and the price was around $200! I understand you're a new hotel, but do you have 2 queen rooms with a sofabed? Because our room was a King Suite with a hallway. Otherwise a good place to stay, but do some research before you go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r384095662-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>384095662</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>My experience at this Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I came in at 2:00 for two rooms reservation.  Was told one room was ready and one would be ready at 3:00.  I returned at 3:00 and was curtly told it was not ready and they would let me know when it was.  I returned at 3:25 and they had already given out the room next door.  Difficult communication and a lot of attitude by the front desk Matthew who acted like he could not understand the irritation nor be concerned to fix it..Further, a similar situation with other customer was unfolding as I walked out to get me luggage.This is an unorganized group that will disappoint you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>I came in at 2:00 for two rooms reservation.  Was told one room was ready and one would be ready at 3:00.  I returned at 3:00 and was curtly told it was not ready and they would let me know when it was.  I returned at 3:25 and they had already given out the room next door.  Difficult communication and a lot of attitude by the front desk Matthew who acted like he could not understand the irritation nor be concerned to fix it..Further, a similar situation with other customer was unfolding as I walked out to get me luggage.This is an unorganized group that will disappoint you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r381895089-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>381895089</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Great location between Denver and Golden</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights while visiting Denver. It was a great location out of the buzz of downtown Denver. We had a quick drive to downtown for sightseeing and a short drive to Golden and Lookout Mountain. It's very close to Colorado Mille and other shopping and great restaurant. It was a great base location for exploring the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights while visiting Denver. It was a great location out of the buzz of downtown Denver. We had a quick drive to downtown for sightseeing and a short drive to Golden and Lookout Mountain. It's very close to Colorado Mille and other shopping and great restaurant. It was a great base location for exploring the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r381273325-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>381273325</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Loved this stay.</t>
+  </si>
+  <si>
+    <t>Had such a great stay at this hotel.  Staff was so pleasant,  the room was laid out very functionally and was spotless.  The bed was super comfortable.  The breakfast area was very organized to allow  us to quickly get our breakfast and get on with our vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2016</t>
+  </si>
+  <si>
+    <t>Had such a great stay at this hotel.  Staff was so pleasant,  the room was laid out very functionally and was spotless.  The bed was super comfortable.  The breakfast area was very organized to allow  us to quickly get our breakfast and get on with our vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r380306833-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>380306833</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel </t>
+  </si>
+  <si>
+    <t>We stayed here are first night in Colorado.   It is 15 minutes from Red Rock  Amphitheater.  The hotel was clean and offered a nice free breakfast.   The rooms have small fridge, microwave and a hair dryer. The rooms were very nice sized.   It was a nice place to stay to attend the concert.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here are first night in Colorado.   It is 15 minutes from Red Rock  Amphitheater.  The hotel was clean and offered a nice free breakfast.   The rooms have small fridge, microwave and a hair dryer. The rooms were very nice sized.   It was a nice place to stay to attend the concert.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r379032843-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>379032843</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Quiet location in West Denver</t>
+  </si>
+  <si>
+    <t>I needed a place in West Denver after arriving late in DEN Int. Airport. This fitted the bill and was easily accessible - 45 minutes via I70. Usual Holiday Inn comfort and in a nice quiet location. Very good complimentary breakfast before heading out west towards Rockies.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff303, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2016</t>
+  </si>
+  <si>
+    <t>I needed a place in West Denver after arriving late in DEN Int. Airport. This fitted the bill and was easily accessible - 45 minutes via I70. Usual Holiday Inn comfort and in a nice quiet location. Very good complimentary breakfast before heading out west towards Rockies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r378783293-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>378783293</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express &amp; Suites Denver West - Golden</t>
+  </si>
+  <si>
+    <t>This is a new hotel, it's situated (as most are) adjacent to a (quiet) retail business zone but don't let that put you off, it's actually in a really great spot for accessing the nearby towns of Golden, Morrison and Boulder and it's not difficult to drive into Denver from this location. We were in the Rockies National Park an hour after leaving the parking lot. Plenty of free parking too.The hotel itself is smart and efficient, breakfast is self service but with plenty of choice. The rooms were great, plenty of space and very comfortable, we had a mountain view. Staff were attentive and helpful. This isn't a luxury hotel but it's still very good and great value for money. I would recommend it without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff303, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>This is a new hotel, it's situated (as most are) adjacent to a (quiet) retail business zone but don't let that put you off, it's actually in a really great spot for accessing the nearby towns of Golden, Morrison and Boulder and it's not difficult to drive into Denver from this location. We were in the Rockies National Park an hour after leaving the parking lot. Plenty of free parking too.The hotel itself is smart and efficient, breakfast is self service but with plenty of choice. The rooms were great, plenty of space and very comfortable, we had a mountain view. Staff were attentive and helpful. This isn't a luxury hotel but it's still very good and great value for money. I would recommend it without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r373938601-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>373938601</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparkling clean and modern but lacking the fine points </t>
+  </si>
+  <si>
+    <t>We stayed here a total of four days within two weeks as my husband and I as well as another couple toured the area. This property offers a great location near the mountains and Golden, CO. Front desk personnel were welcoming, helpful, accurate, and attentive. The view from the rooms is not immediately attractive as you look at either a parking lot, a Petco, or strip shopping, but you can see the Rockies beyond in all of their magnificence. The parking lot is well-lit at night.  The rooms offer comfortable beds and linens, coffee maker, microwave, and mini-fridge. The bathrooms are spotless and feature soft, clean towels. The breakfast area, foyer, and rooms feature interesting, historic pictures of the area during its heyday. The free breakfast is ample but mostly repetitive. Cinnamon rolls, biscuits and gravy, eggs, bacon or sausage, cereals, coffee, juices, bagels, toast, and yogurt are offered daily and are basically the same as we have had at other Holiday Inn Express locations.  There are no safes in the rooms, despite a "blank" front in the cabinet where one would fit.  It was a giant pain and worry to have to carry our money, jewelry, binoculars, and camera with us every where we went.  The closet doors are flimsy and the closet interiors are not lighted.  Overall, we enjoyed our stays here.  With a few tweaks, this would be a perfect property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here a total of four days within two weeks as my husband and I as well as another couple toured the area. This property offers a great location near the mountains and Golden, CO. Front desk personnel were welcoming, helpful, accurate, and attentive. The view from the rooms is not immediately attractive as you look at either a parking lot, a Petco, or strip shopping, but you can see the Rockies beyond in all of their magnificence. The parking lot is well-lit at night.  The rooms offer comfortable beds and linens, coffee maker, microwave, and mini-fridge. The bathrooms are spotless and feature soft, clean towels. The breakfast area, foyer, and rooms feature interesting, historic pictures of the area during its heyday. The free breakfast is ample but mostly repetitive. Cinnamon rolls, biscuits and gravy, eggs, bacon or sausage, cereals, coffee, juices, bagels, toast, and yogurt are offered daily and are basically the same as we have had at other Holiday Inn Express locations.  There are no safes in the rooms, despite a "blank" front in the cabinet where one would fit.  It was a giant pain and worry to have to carry our money, jewelry, binoculars, and camera with us every where we went.  The closet doors are flimsy and the closet interiors are not lighted.  Overall, we enjoyed our stays here.  With a few tweaks, this would be a perfect property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r371160609-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>371160609</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>House Keeping Issues ans Poor Hospitality</t>
+  </si>
+  <si>
+    <t>Hair was in the bathroom prior to our arrival, the garbage cans were not emptied by housekeeping after the first night and it was obvious the bathroom floor was not cleaned. The onsite manager was non existent during our stay to discuss the cleanliness issue and the morning front desk staff person handled my complaint about the cleanlinss issue poorly. He lacked concern over the issue and was extremely rude and argumentative. Stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff303, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Hair was in the bathroom prior to our arrival, the garbage cans were not emptied by housekeeping after the first night and it was obvious the bathroom floor was not cleaned. The onsite manager was non existent during our stay to discuss the cleanliness issue and the morning front desk staff person handled my complaint about the cleanlinss issue poorly. He lacked concern over the issue and was extremely rude and argumentative. Stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r369192760-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>369192760</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>EVERYBODY was so nice and Helpful,</t>
+  </si>
+  <si>
+    <t>We left another hotel to stay here, because it wasn't up to our standards.  I was So happy we did,  Everything here was so clean and bright.  This is a pretty new hotel.  Rooms were big, beds were VERY comfortable.  They have Keurig machines in every room, with the coffee pods.  Refrigerator, flat screen TV and microwave in the room.  We were here because my daughter had a baby, The breakfasts are very nice, the pancake maker was the bomb.  Miss Arlene was working the breakfast buffet that day, when we told here my daughter was in the hospital, she wrapped up 2 cinnamon rolls for us to take to her. The general manager came up at the same time and actually placed them in individual containers for us.  That little bit of kindness meant the world to me, and I wont forget.   Thank you Miss Arlene and Michael for being so sweet.  EVERYBODY behind the front desk were SO friendly, I wish I knew their names.  NOT ONE COMPLAINT .   This is the only hotel I will stay at in Golden.  The restaurants are in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>We left another hotel to stay here, because it wasn't up to our standards.  I was So happy we did,  Everything here was so clean and bright.  This is a pretty new hotel.  Rooms were big, beds were VERY comfortable.  They have Keurig machines in every room, with the coffee pods.  Refrigerator, flat screen TV and microwave in the room.  We were here because my daughter had a baby, The breakfasts are very nice, the pancake maker was the bomb.  Miss Arlene was working the breakfast buffet that day, when we told here my daughter was in the hospital, she wrapped up 2 cinnamon rolls for us to take to her. The general manager came up at the same time and actually placed them in individual containers for us.  That little bit of kindness meant the world to me, and I wont forget.   Thank you Miss Arlene and Michael for being so sweet.  EVERYBODY behind the front desk were SO friendly, I wish I knew their names.  NOT ONE COMPLAINT .   This is the only hotel I will stay at in Golden.  The restaurants are in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r361797782-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>361797782</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Impressive!</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, well kept and comfortable. We got stuck out of town during the blizzard and had to find a close hotel since all the highways got shut down. Holiday Inn Express worked tirelessly to get everyone a room, keep them comfortable while waiting for their room, and even helped people shovel and get their cars unstuck from the snow. The entire staff remained cheerful, professional, helpful and diligent during the chaos from the storm. I will definitely look for a Holiday Inn Express during my travels based on my experience with this chain! If I am ever in Golden, Colorado again, I will stay here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Amber A, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, well kept and comfortable. We got stuck out of town during the blizzard and had to find a close hotel since all the highways got shut down. Holiday Inn Express worked tirelessly to get everyone a room, keep them comfortable while waiting for their room, and even helped people shovel and get their cars unstuck from the snow. The entire staff remained cheerful, professional, helpful and diligent during the chaos from the storm. I will definitely look for a Holiday Inn Express during my travels based on my experience with this chain! If I am ever in Golden, Colorado again, I will stay here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r360525737-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>360525737</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>This Hotel is very clean. The rooms were wonderful.  Our room had fridge and microwave.  The bed and pillows are comfy. The staff was friendly. The pool and hot tub were clean. Only downfall is there isn't any restaurants within walking distance... there are a couple of fast food places within walking distance. We would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>This Hotel is very clean. The rooms were wonderful.  Our room had fridge and microwave.  The bed and pillows are comfy. The staff was friendly. The pool and hot tub were clean. Only downfall is there isn't any restaurants within walking distance... there are a couple of fast food places within walking distance. We would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r359437560-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>359437560</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Nice new feeling hotel and perfect location</t>
+  </si>
+  <si>
+    <t>We were visiting Denver for a wedding out at Chief Hosa lodge. This Golden location put us only 10 minutes from the wedding, at the foothills of the mountain and in the perfect location to enjoy the mountains and the many tours/museums/outdoor experiences of the area. It only took us 10-15 minutes to get downtown as well, so it was ideal.The hotel seemed very new, the staff was exceptionally friendly and accommodating, and the rooms were nice-sized and well-furnished (including microwave and fridge in each room was great).The view of the mountains even from the hotel room was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Amber A, Director of Sales at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>We were visiting Denver for a wedding out at Chief Hosa lodge. This Golden location put us only 10 minutes from the wedding, at the foothills of the mountain and in the perfect location to enjoy the mountains and the many tours/museums/outdoor experiences of the area. It only took us 10-15 minutes to get downtown as well, so it was ideal.The hotel seemed very new, the staff was exceptionally friendly and accommodating, and the rooms were nice-sized and well-furnished (including microwave and fridge in each room was great).The view of the mountains even from the hotel room was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r351546573-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>351546573</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little noisy </t>
+  </si>
+  <si>
+    <t>Stayed in room 110 (right next to the hallway, bathrooms, and breakfast location).... Seems like every time someone went in the bathroom (starting at 4 am) I heard a boom with the door and whenever breakfast hours started it got really noisy as well.... Didn't sleep well because of it... So a suggestion would be maybe a door stopper or something to keep the door from making the loud noise.. Breakfast was pretty tasty, the staff was quick at check in, seems like a good location!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Amber A, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed in room 110 (right next to the hallway, bathrooms, and breakfast location).... Seems like every time someone went in the bathroom (starting at 4 am) I heard a boom with the door and whenever breakfast hours started it got really noisy as well.... Didn't sleep well because of it... So a suggestion would be maybe a door stopper or something to keep the door from making the loud noise.. Breakfast was pretty tasty, the staff was quick at check in, seems like a good location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r351183601-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>351183601</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>Very happy with this hotel</t>
+  </si>
+  <si>
+    <t>Stayed on the 4th floor.  Was happy to get a room facing the mountains.  Our beds were comfortable, the room clean.  Everything was up to snuff for what we expected from a HI Express.  The employees at the front desk checking in and out were talkative and friendly.  Breakfast was good with turkey sausage as well as pork sausage and cinnamon rolls along with the other fare offered at most hotels.  The fake cheese omelets were offered but we passed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed on the 4th floor.  Was happy to get a room facing the mountains.  Our beds were comfortable, the room clean.  Everything was up to snuff for what we expected from a HI Express.  The employees at the front desk checking in and out were talkative and friendly.  Breakfast was good with turkey sausage as well as pork sausage and cinnamon rolls along with the other fare offered at most hotels.  The fake cheese omelets were offered but we passed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r348311256-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>348311256</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent for jumping off point to the mountains</t>
+  </si>
+  <si>
+    <t>We flew into Denver on an evening flight and did not want to drive up to the mountains at night, so I booked this Holiday Inn Express on IHG points, and it was one of the nicer Express properties I have ever seen (I'm IHG Spire Elite too).  Convenient location, close to food and highways.  The rooms and breakfast area are very attractive.  And the breakfast was top notch for our family.  Numerous choices of eggs, pancakes, fruits, etc.  I will not hesitate to use this itinerary again and stay over at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amber A, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>We flew into Denver on an evening flight and did not want to drive up to the mountains at night, so I booked this Holiday Inn Express on IHG points, and it was one of the nicer Express properties I have ever seen (I'm IHG Spire Elite too).  Convenient location, close to food and highways.  The rooms and breakfast area are very attractive.  And the breakfast was top notch for our family.  Numerous choices of eggs, pancakes, fruits, etc.  I will not hesitate to use this itinerary again and stay over at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r338528490-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>338528490</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>DO NOT USE THIS HOTEL FOR WEDDING BLOCKS!</t>
+  </si>
+  <si>
+    <t>It took me 36 days to get a room block for my wedding at this hotel. i want to start by saying there is a convention the weekend of my wedding and ALL the other hotels were already booked. Getting this room block was very very important as everything was full. I first gave their sales manager Michael my information on November 27th. I waited for my quote for over two weeks. Over the two weeks I left 9 messages! On his voicemail as well as with the receptionist. I called in finally and waited over 20 minutes for him and the receptionist came back on and stated his door was closed? What does that even mean? I asked for the corporate phone number. I spoke with Rosalie who seemed to be very sweet and helpful I did receive a call from Michael at that point. I again gave him my information. Two weeks later I STILL never got a quote. I finally called a general reservation number and refused to get off the phone until my rooms were blocked. I did finally get my rooms after 36 days and over 20 phone calls! This should not have been the most stressful part of planning my wedding and so far it absolutely has been.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2016</t>
+  </si>
+  <si>
+    <t>It took me 36 days to get a room block for my wedding at this hotel. i want to start by saying there is a convention the weekend of my wedding and ALL the other hotels were already booked. Getting this room block was very very important as everything was full. I first gave their sales manager Michael my information on November 27th. I waited for my quote for over two weeks. Over the two weeks I left 9 messages! On his voicemail as well as with the receptionist. I called in finally and waited over 20 minutes for him and the receptionist came back on and stated his door was closed? What does that even mean? I asked for the corporate phone number. I spoke with Rosalie who seemed to be very sweet and helpful I did receive a call from Michael at that point. I again gave him my information. Two weeks later I STILL never got a quote. I finally called a general reservation number and refused to get off the phone until my rooms were blocked. I did finally get my rooms after 36 days and over 20 phone calls! This should not have been the most stressful part of planning my wedding and so far it absolutely has been.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r332164030-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>332164030</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Met Expectations</t>
+  </si>
+  <si>
+    <t>As the first of two nights of a "Mattress Run"... we found a hotel that shares a parking lot with Petco, but has a good view of the foothills.  Room was clean and spacious.  The pool and hot tub were peaceful, but nothing fancy.  The breakfast was exactly the same items as any other HIE, which more than adequate for a continental breakfast.  The food was kept well stocked and fresh.  The service was standard, but not excellent.  One example is at check-in the Guest Service worker gave us a WiFi password that would expire in a few short hours, but failed to tell us.  Not a big deal, but that's the difference between four and five stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded January 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2016</t>
+  </si>
+  <si>
+    <t>As the first of two nights of a "Mattress Run"... we found a hotel that shares a parking lot with Petco, but has a good view of the foothills.  Room was clean and spacious.  The pool and hot tub were peaceful, but nothing fancy.  The breakfast was exactly the same items as any other HIE, which more than adequate for a continental breakfast.  The food was kept well stocked and fresh.  The service was standard, but not excellent.  One example is at check-in the Guest Service worker gave us a WiFi password that would expire in a few short hours, but failed to tell us.  Not a big deal, but that's the difference between four and five stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r331689304-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>331689304</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Couldn't have asked for a better place to stay</t>
+  </si>
+  <si>
+    <t>We recently spent two nights at this brand new hotel. Everything was excellent. The staff was pleasant, the room was quiet. Normally I wear ear plugs at hotels but they were not needed here. The room and bedding were very clean. The bathroom was very clean and large.The breakfast was the normal HIX fare, but was hot and there was plenty of food available. This is our new go-to hotel while visiting family in the Golden areaMoreShow less</t>
+  </si>
+  <si>
+    <t>We recently spent two nights at this brand new hotel. Everything was excellent. The staff was pleasant, the room was quiet. Normally I wear ear plugs at hotels but they were not needed here. The room and bedding were very clean. The bathroom was very clean and large.The breakfast was the normal HIX fare, but was hot and there was plenty of food available. This is our new go-to hotel while visiting family in the Golden areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r326384758-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>326384758</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Wonderful HIE</t>
+  </si>
+  <si>
+    <t>The fact that this hotel was less than one week old when we spent a night there, may have something to do with the wonderful experience we had.   A joyful welcome from the from the front desk (Jesse, I think), an exquisite suite, very helpful service and good advice re local restaurant for dinner.  A restful evening and a very comfortable bed.  In the morning, no fewer than 4 employees wished us a good morning and asked if we needed anything or if there was anything else they could do for us.  Breakfast room was clean, many staff and lots of choices for breakfast. We would go out of our way to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Jackie L, Director of Sales at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>The fact that this hotel was less than one week old when we spent a night there, may have something to do with the wonderful experience we had.   A joyful welcome from the from the front desk (Jesse, I think), an exquisite suite, very helpful service and good advice re local restaurant for dinner.  A restful evening and a very comfortable bed.  In the morning, no fewer than 4 employees wished us a good morning and asked if we needed anything or if there was anything else they could do for us.  Breakfast room was clean, many staff and lots of choices for breakfast. We would go out of our way to stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2107,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2139,4280 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>175</v>
+      </c>
+      <c r="X19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>245</v>
+      </c>
+      <c r="X29" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>245</v>
+      </c>
+      <c r="X30" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>260</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>261</v>
+      </c>
+      <c r="X31" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>269</v>
+      </c>
+      <c r="O33" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>270</v>
+      </c>
+      <c r="X33" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" t="s">
+        <v>283</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" t="s">
+        <v>104</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>285</v>
+      </c>
+      <c r="X34" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>294</v>
+      </c>
+      <c r="X35" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>302</v>
+      </c>
+      <c r="X36" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>318</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>319</v>
+      </c>
+      <c r="X38" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" t="s">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s">
+        <v>326</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>318</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>327</v>
+      </c>
+      <c r="X39" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>331</v>
+      </c>
+      <c r="J40" t="s">
+        <v>332</v>
+      </c>
+      <c r="K40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s">
+        <v>334</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>335</v>
+      </c>
+      <c r="X40" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>318</v>
+      </c>
+      <c r="O41" t="s">
+        <v>104</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>343</v>
+      </c>
+      <c r="X41" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42" t="s">
+        <v>350</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>318</v>
+      </c>
+      <c r="O42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>351</v>
+      </c>
+      <c r="X42" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>104</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>360</v>
+      </c>
+      <c r="X43" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>364</v>
+      </c>
+      <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s">
+        <v>367</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>359</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>368</v>
+      </c>
+      <c r="X44" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" t="s">
+        <v>371</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>372</v>
+      </c>
+      <c r="J45" t="s">
+        <v>373</v>
+      </c>
+      <c r="K45" t="s">
+        <v>374</v>
+      </c>
+      <c r="L45" t="s">
+        <v>375</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>359</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>376</v>
+      </c>
+      <c r="X45" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>385</v>
+      </c>
+      <c r="X46" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" t="s">
+        <v>392</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O47" t="s">
+        <v>104</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>393</v>
+      </c>
+      <c r="X47" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" t="s">
+        <v>396</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>397</v>
+      </c>
+      <c r="J48" t="s">
+        <v>398</v>
+      </c>
+      <c r="K48" t="s">
+        <v>399</v>
+      </c>
+      <c r="L48" t="s">
+        <v>400</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>401</v>
+      </c>
+      <c r="O48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>402</v>
+      </c>
+      <c r="X48" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s">
+        <v>409</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>401</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>410</v>
+      </c>
+      <c r="X49" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>414</v>
+      </c>
+      <c r="J50" t="s">
+        <v>415</v>
+      </c>
+      <c r="K50" t="s">
+        <v>416</v>
+      </c>
+      <c r="L50" t="s">
+        <v>417</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>418</v>
+      </c>
+      <c r="X50" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>422</v>
+      </c>
+      <c r="J51" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" t="s">
+        <v>424</v>
+      </c>
+      <c r="L51" t="s">
+        <v>425</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>427</v>
+      </c>
+      <c r="X51" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>432</v>
+      </c>
+      <c r="K52" t="s">
+        <v>433</v>
+      </c>
+      <c r="L52" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>401</v>
+      </c>
+      <c r="O52" t="s">
+        <v>104</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>435</v>
+      </c>
+      <c r="X52" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>401</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>443</v>
+      </c>
+      <c r="X53" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" t="s">
+        <v>446</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>447</v>
+      </c>
+      <c r="J54" t="s">
+        <v>448</v>
+      </c>
+      <c r="K54" t="s">
+        <v>449</v>
+      </c>
+      <c r="L54" t="s">
+        <v>450</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>426</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>451</v>
+      </c>
+      <c r="X54" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" t="s">
+        <v>454</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>455</v>
+      </c>
+      <c r="J55" t="s">
+        <v>456</v>
+      </c>
+      <c r="K55" t="s">
+        <v>457</v>
+      </c>
+      <c r="L55" t="s">
+        <v>458</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>426</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>459</v>
+      </c>
+      <c r="X55" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56" t="s">
+        <v>462</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>463</v>
+      </c>
+      <c r="J56" t="s">
+        <v>464</v>
+      </c>
+      <c r="K56" t="s">
+        <v>465</v>
+      </c>
+      <c r="L56" t="s">
+        <v>466</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>426</v>
+      </c>
+      <c r="O56" t="s">
+        <v>104</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>467</v>
+      </c>
+      <c r="X56" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" t="s">
+        <v>470</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>471</v>
+      </c>
+      <c r="J57" t="s">
+        <v>472</v>
+      </c>
+      <c r="K57" t="s">
+        <v>473</v>
+      </c>
+      <c r="L57" t="s">
+        <v>474</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>426</v>
+      </c>
+      <c r="O57" t="s">
+        <v>104</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>475</v>
+      </c>
+      <c r="X57" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" t="s">
+        <v>478</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>479</v>
+      </c>
+      <c r="J58" t="s">
+        <v>480</v>
+      </c>
+      <c r="K58" t="s">
+        <v>481</v>
+      </c>
+      <c r="L58" t="s">
+        <v>482</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>483</v>
+      </c>
+      <c r="O58" t="s">
+        <v>104</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>484</v>
+      </c>
+      <c r="X58" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>488</v>
+      </c>
+      <c r="J59" t="s">
+        <v>489</v>
+      </c>
+      <c r="K59" t="s">
+        <v>490</v>
+      </c>
+      <c r="L59" t="s">
+        <v>491</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>384</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>492</v>
+      </c>
+      <c r="X59" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" t="s">
+        <v>495</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>496</v>
+      </c>
+      <c r="J60" t="s">
+        <v>497</v>
+      </c>
+      <c r="K60" t="s">
+        <v>498</v>
+      </c>
+      <c r="L60" t="s">
+        <v>499</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>384</v>
+      </c>
+      <c r="O60" t="s">
+        <v>104</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>492</v>
+      </c>
+      <c r="X60" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" t="s">
+        <v>501</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>502</v>
+      </c>
+      <c r="J61" t="s">
+        <v>503</v>
+      </c>
+      <c r="K61" t="s">
+        <v>504</v>
+      </c>
+      <c r="L61" t="s">
+        <v>505</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>384</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>506</v>
+      </c>
+      <c r="X61" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" t="s">
+        <v>509</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>510</v>
+      </c>
+      <c r="J62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K62" t="s">
+        <v>512</v>
+      </c>
+      <c r="L62" t="s">
+        <v>513</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>514</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>515</v>
+      </c>
+      <c r="X62" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" t="s">
+        <v>518</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>519</v>
+      </c>
+      <c r="J63" t="s">
+        <v>520</v>
+      </c>
+      <c r="K63" t="s">
+        <v>521</v>
+      </c>
+      <c r="L63" t="s">
+        <v>522</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>514</v>
+      </c>
+      <c r="O63" t="s">
+        <v>104</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>515</v>
+      </c>
+      <c r="X63" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>525</v>
+      </c>
+      <c r="J64" t="s">
+        <v>526</v>
+      </c>
+      <c r="K64" t="s">
+        <v>527</v>
+      </c>
+      <c r="L64" t="s">
+        <v>528</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>514</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>529</v>
+      </c>
+      <c r="X64" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" t="s">
+        <v>532</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>533</v>
+      </c>
+      <c r="J65" t="s">
+        <v>534</v>
+      </c>
+      <c r="K65" t="s">
+        <v>535</v>
+      </c>
+      <c r="L65" t="s">
+        <v>536</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>537</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>538</v>
+      </c>
+      <c r="X65" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>542</v>
+      </c>
+      <c r="J66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>544</v>
+      </c>
+      <c r="L66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>537</v>
+      </c>
+      <c r="O66" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>546</v>
+      </c>
+      <c r="X66" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>549</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>550</v>
+      </c>
+      <c r="J67" t="s">
+        <v>551</v>
+      </c>
+      <c r="K67" t="s">
+        <v>552</v>
+      </c>
+      <c r="L67" t="s">
+        <v>553</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>537</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>546</v>
+      </c>
+      <c r="X67" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" t="s">
+        <v>555</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>556</v>
+      </c>
+      <c r="J68" t="s">
+        <v>557</v>
+      </c>
+      <c r="K68" t="s">
+        <v>558</v>
+      </c>
+      <c r="L68" t="s">
+        <v>559</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>560</v>
+      </c>
+      <c r="O68" t="s">
+        <v>104</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>561</v>
+      </c>
+      <c r="X68" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_139.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_139.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="865">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r607841928-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>33447</t>
+  </si>
+  <si>
+    <t>7621238</t>
+  </si>
+  <si>
+    <t>607841928</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Road trip</t>
+  </si>
+  <si>
+    <t>Stayed here having arrived in Denver on the start of our road trip. Room was large and had everything we needed. Breakfast was included and truly had everything you could want. The warm cinnamon rolls were the best thing ever!!!!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r595564962-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>595564962</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express &amp; Suites did not disappoint (as usual :-) )</t>
+  </si>
+  <si>
+    <t>We booked two rooms (two double beds and and queen bed) after flying in to Denver. The hotel is on a quiet location, yet close to shops and dining facilities. Friendly staff, tidy and spacious rooms. The breakfast was much appreciated: loved the pancakes!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r595389412-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
-    <t>33447</t>
-  </si>
-  <si>
-    <t>7621238</t>
-  </si>
-  <si>
     <t>595389412</t>
   </si>
   <si>
@@ -195,6 +231,21 @@
     <t>Our family stayed here while we visited the main attractions in the surrounding area. Because we traveled north and south, this was an ideal location.  The rooms were clean and spacious.  Some of them have a beautiful Mountain View.  The staff was helpful and friendly. Breakfast was delicious, with many choices, especially enjoyed cinnamon rolls and pancakes. They have ample parking. There are restaurants, shopping and gas stations nearby.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r591724774-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>591724774</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>We very much enjoyed our stay at this Holiday Inn. The employees were very courteous and truly cared for our needs. Clean, comfortable, efficient and had a relaxing atmosphere. Nice breakfast every AM. All spots worth visiting easily accessible from this hotelTry it!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r588413539-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -210,15 +261,39 @@
     <t>Booked to stay 4 nights which I regret, the hotel was based on an estate with other hotels and you needed to get on very busy freeways to go anywhere. Golden itself was about 5.5 miles away, I thought we were staying in Golden town but alas no.The hotel staff were lovely, the rooms were very clean and spacious.The free breakfast was a challenge,  no room  to sit very busy, ran out of food not the best place I have stayed at. Had I not paid in advance I probably would have moved on.They had problems getting cleaning staff, the one’s I spoke to were really nice especially as we were coming back to the UK so we left a lot of unwanted stuff in the room.   Golden town was very nice, typical old town but lots of nice restaurants.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>Booked to stay 4 nights which I regret, the hotel was based on an estate with other hotels and you needed to get on very busy freeways to go anywhere. Golden itself was about 5.5 miles away, I thought we were staying in Golden town but alas no.The hotel staff were lovely, the rooms were very clean and spacious.The free breakfast was a challenge,  no room  to sit very busy, ran out of food not the best place I have stayed at. Had I not paid in advance I probably would have moved on.They had problems getting cleaning staff, the one’s I spoke to were really nice especially as we were coming back to the UK so we left a lot of unwanted stuff in the room.   Golden town was very nice, typical old town but lots of nice restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r588291583-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>588291583</t>
+  </si>
+  <si>
+    <t>Perfect 3 Day Getaway</t>
+  </si>
+  <si>
+    <t>We stayed here because of it's proximity to Red Rocks Amphitheater.  Perfect location.  Hotel was clean, free breakfast and the staff was friendly.  No complaints at all.  Would stay again.  Short distance to plenty of hiking, scenery and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r581268313-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>581268313</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Would definitely come back!</t>
+  </si>
+  <si>
+    <t>We had room 230 - it is huge and very clean. The staff was overly friendly, kind, hospitable - the manager gave us not just one, but two recommendations on lunch and both places were amazing! Honestly, I can't get over how nice they all were!The pool/hot tub area were clean and we had a fantastic time.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r572458939-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -282,6 +357,57 @@
     <t>This hotel was very convenient to the baseball fields at Ulysses Sports Park.  They offered two queen beds and a pull out sofa. The room was nice. The pullout sofa mattress was stained so I was surprised they didn’t give us a mattress pad with the sheet set. The sofa bed sheets also had stains on them. The other two beds and towels were very clean and white.  Fitness center was fine. Pool was heated. Breakfast was chaotic. They were out of hot water, the pancake maker was in high demand and people were everywhere trying to get items. The two small trash cans were in the same area as the food so it seemed like it should be set up to flow better. The two ladies seemed like they were just trying to keep up with the busy weekend. Cinnamon rolls were great!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r561654593-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>561654593</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Super-friendly front desk, improved housekeeping, great pool</t>
+  </si>
+  <si>
+    <t>A year after my first stay I again chose this property for my 7-night stay, mostly for the sake of convenient location. I was greeted by Joy at the front desk and this was one of the nicest check-in experiences recently. She actually asked me about room type and location preferences, upgraded me (due to IHG Spire) to a suite and assigned me one exactly where I asked for. Joy and her colleague Kelsey really went out of their way to accommodate anything I asked for. 
+The 2-queen suite was in good shape and very spacious, had a nice view and was quiet for sleeping even on first few days when the hotel was almost full.
+The housekeeping has improved some, they were not forgetting as many items as they did last year, but there was still room for improvement - room corners and hard-to-reach areas of the room were not vacuumed and/or were dusty, the bathroom floor could also have been wiped a few times during the 7-night stay. However my biggest concern were the dirty corridors and elevators, it took them 4 days before they finally vacuumed the corridors, but never mopped the elevators' floors. 
+The coin-operated guest laundry was (luckily) functioning this year, however it also desperately needed a thourough floor cleaning. The only common area of the hotel which did not have cleanliness issues was the pool - it was spotlessly clean and always had fresh...A year after my first stay I again chose this property for my 7-night stay, mostly for the sake of convenient location. I was greeted by Joy at the front desk and this was one of the nicest check-in experiences recently. She actually asked me about room type and location preferences, upgraded me (due to IHG Spire) to a suite and assigned me one exactly where I asked for. Joy and her colleague Kelsey really went out of their way to accommodate anything I asked for. The 2-queen suite was in good shape and very spacious, had a nice view and was quiet for sleeping even on first few days when the hotel was almost full.The housekeeping has improved some, they were not forgetting as many items as they did last year, but there was still room for improvement - room corners and hard-to-reach areas of the room were not vacuumed and/or were dusty, the bathroom floor could also have been wiped a few times during the 7-night stay. However my biggest concern were the dirty corridors and elevators, it took them 4 days before they finally vacuumed the corridors, but never mopped the elevators' floors. The coin-operated guest laundry was (luckily) functioning this year, however it also desperately needed a thourough floor cleaning. The only common area of the hotel which did not have cleanliness issues was the pool - it was spotlessly clean and always had fresh towels available. I wonder if a different person was in charge of pool area cleaning and maintenence. Overall the service somewhat improved from last year's, but they have quite some areas to work with. To start with is better housekeeping oversight and a more frequent cleaning of common areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>A year after my first stay I again chose this property for my 7-night stay, mostly for the sake of convenient location. I was greeted by Joy at the front desk and this was one of the nicest check-in experiences recently. She actually asked me about room type and location preferences, upgraded me (due to IHG Spire) to a suite and assigned me one exactly where I asked for. Joy and her colleague Kelsey really went out of their way to accommodate anything I asked for. 
+The 2-queen suite was in good shape and very spacious, had a nice view and was quiet for sleeping even on first few days when the hotel was almost full.
+The housekeeping has improved some, they were not forgetting as many items as they did last year, but there was still room for improvement - room corners and hard-to-reach areas of the room were not vacuumed and/or were dusty, the bathroom floor could also have been wiped a few times during the 7-night stay. However my biggest concern were the dirty corridors and elevators, it took them 4 days before they finally vacuumed the corridors, but never mopped the elevators' floors. 
+The coin-operated guest laundry was (luckily) functioning this year, however it also desperately needed a thourough floor cleaning. The only common area of the hotel which did not have cleanliness issues was the pool - it was spotlessly clean and always had fresh...A year after my first stay I again chose this property for my 7-night stay, mostly for the sake of convenient location. I was greeted by Joy at the front desk and this was one of the nicest check-in experiences recently. She actually asked me about room type and location preferences, upgraded me (due to IHG Spire) to a suite and assigned me one exactly where I asked for. Joy and her colleague Kelsey really went out of their way to accommodate anything I asked for. The 2-queen suite was in good shape and very spacious, had a nice view and was quiet for sleeping even on first few days when the hotel was almost full.The housekeeping has improved some, they were not forgetting as many items as they did last year, but there was still room for improvement - room corners and hard-to-reach areas of the room were not vacuumed and/or were dusty, the bathroom floor could also have been wiped a few times during the 7-night stay. However my biggest concern were the dirty corridors and elevators, it took them 4 days before they finally vacuumed the corridors, but never mopped the elevators' floors. The coin-operated guest laundry was (luckily) functioning this year, however it also desperately needed a thourough floor cleaning. The only common area of the hotel which did not have cleanliness issues was the pool - it was spotlessly clean and always had fresh towels available. I wonder if a different person was in charge of pool area cleaning and maintenence. Overall the service somewhat improved from last year's, but they have quite some areas to work with. To start with is better housekeeping oversight and a more frequent cleaning of common areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r560545526-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>560545526</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>Decent, but as many in area, they need better maid service</t>
+  </si>
+  <si>
+    <t>We stay in Holiday Inn Expresses around the country, about 40 to 60 per year. They are modern, attractive, and usually clean.  We’ve found that out west there must be shortage of employees, because it shows in this hotel, but also in many restaurants and pubs as well. We were shorted on backup toilet paper and tissues, batteries went dead in tv remote, direct tv would not gain signal way too often, and one day my bed wasn’t made up.  Breakfast was okay, server tried to fix pancake automatic machine, but as we’ve found in almost everyone, they never work properly and should be replaced with something that works more than it doesn’t.  Senior executive management from IHG needs to check out the staff at this facility. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>We stay in Holiday Inn Expresses around the country, about 40 to 60 per year. They are modern, attractive, and usually clean.  We’ve found that out west there must be shortage of employees, because it shows in this hotel, but also in many restaurants and pubs as well. We were shorted on backup toilet paper and tissues, batteries went dead in tv remote, direct tv would not gain signal way too often, and one day my bed wasn’t made up.  Breakfast was okay, server tried to fix pancake automatic machine, but as we’ve found in almost everyone, they never work properly and should be replaced with something that works more than it doesn’t.  Senior executive management from IHG needs to check out the staff at this facility. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r556520021-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -297,18 +423,9 @@
     <t>This hotel is in an industrial park type area, near the mining engineering school so the dining options are limited. When I arrived and checked in, the TV in my room didn't work. They did upgrade me after I asked for a different room so I did end up with a really nice room. The lady that came on for the overnight shift was really responsive to my needs, the guy before her, not so much. In the end it was all good. The free breakfast is good with a variety of choice. Overall, I was satisfied with the amenities and service.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded February 20, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 20, 2018</t>
-  </si>
-  <si>
     <t>This hotel is in an industrial park type area, near the mining engineering school so the dining options are limited. When I arrived and checked in, the TV in my room didn't work. They did upgrade me after I asked for a different room so I did end up with a really nice room. The lady that came on for the overnight shift was really responsive to my needs, the guy before her, not so much. In the end it was all good. The free breakfast is good with a variety of choice. Overall, I was satisfied with the amenities and service.More</t>
   </si>
   <si>
@@ -330,9 +447,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded December 7, 2017</t>
   </si>
   <si>
@@ -360,6 +474,51 @@
     <t>Room was cute and clean. The free wifi was high speed and I was easily able to stream Netflix. Front desk staff were super nice and gave us great suggestions for places to eat and local attractions. Highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r537890161-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>537890161</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Large Rooms with Great Breakfast</t>
+  </si>
+  <si>
+    <t>This is one of the nicest Holiday Inn Express hotels that we have stayed at.  The staff was very friendly and accommodating.  Especially during breakfast, they were running around re-stocking all the food and clearing dishes as fast as they could.  The front desk staff was also friendly and helpful.The room was much larger than expected, clean, and comfortable.  We also liked the Direct TV service and refrigerator.Breakfast was very good with many different options.  The cinnamon rolls are wonderful!The location was decent, it would have been nice to have a restaurant/bar within walking distance.  And the parking seemed to fill up quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>This is one of the nicest Holiday Inn Express hotels that we have stayed at.  The staff was very friendly and accommodating.  Especially during breakfast, they were running around re-stocking all the food and clearing dishes as fast as they could.  The front desk staff was also friendly and helpful.The room was much larger than expected, clean, and comfortable.  We also liked the Direct TV service and refrigerator.Breakfast was very good with many different options.  The cinnamon rolls are wonderful!The location was decent, it would have been nice to have a restaurant/bar within walking distance.  And the parking seemed to fill up quickly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r537516436-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>537516436</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We were in Golden Colorado for my cousin's wedding.  The hotel was very nice, our room has everything that we needed.  The breakfast had a great selection, Arlene was a wealth of information.  The only downside was the WIFI.  When I asked about it at the front desk I was told it was because the hotel was full.  That shouldn't happen.  I used up some of my data on my phone needlessly because of this.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Golden Colorado for my cousin's wedding.  The hotel was very nice, our room has everything that we needed.  The breakfast had a great selection, Arlene was a wealth of information.  The only downside was the WIFI.  When I asked about it at the front desk I was told it was because the hotel was full.  That shouldn't happen.  I used up some of my data on my phone needlessly because of this.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r531351526-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -378,12 +537,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded November 9, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 9, 2017</t>
-  </si>
-  <si>
     <t>Excellent experience, clean and bright.  Quiet location, convenient to Red Rocks.  Good breakfast.  Staff was all very pleasant and engaged.  Newer facility.  We were greeted upon arrival and offered an early check inMore</t>
   </si>
   <si>
@@ -429,6 +582,36 @@
     <t>Stayed here two nights while attending a concert at Red Rocks, which is pretty much down the road from this hotel, so if planning on attending a concert there, this hotel is a great choice! We've stayed in a lot of Holiday Inn Express hotels and this one met or exceeded the high expectations we've come to expect from this chain. Room was clean and bright, lobby and breakfast area were clean and well kept. Breakfast was good, and we're big fans of the cinnamon rolls! There's quite a bit of retail shopping around like a Kohls, PetCo, a big golf store, so there's something to do besides venture into the mountains. Downtown Golden is only about a 10 minute drive and there's lots of cute shops and great restaurants. Overall, very pleased with our stay!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r520934808-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>520934808</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Nice view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a nice view from our room. The motel was clean and beds were comfortable. Breakfast was good and had a wide variety of options. Staff was very nice and respectful. Kids were fascinated with the pancake machine. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r517465179-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>517465179</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Close to Red Rocks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the perfect hotel for taking in a show at the Red Rocks amphitheatre.  I was hesitant at first, as the area was somewhat industrial, but the proximity to the amphitheatre was so convenient, I would definitely choose this hotel if I am ever lucky enough to return the venue.  The rooms were clean, the staff was very friendly and the complimentary breakfast was a nice bonus.  The location is very close to some beautiful scenery, but it would not be my choice for a long stay.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r513922127-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -489,6 +672,42 @@
     <t>Generally nice property, but service orientation is very poor. Check in experience was ho-hum, but breakfast was real disappointment. Had to depart by 6:00 just as formal breakfast hours began so got down there about 5:45 expecting to be able to grab some cold items...cereal, yogurt, etc. But, rather I was admonished to stay away until 6:00 even though items were available. Actually thought she was kidding, but she made it clear she was not. My experience is most hotels will more often go out of their way to support early departers, but just the opposite with this place. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r508453903-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>508453903</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Minor Details Overlooked</t>
+  </si>
+  <si>
+    <t>First off, I very much enjoyed my stay at this property. I was given a room much larger than I needed, which was awesome! The staff was excellent as well as the free breakfast!As far as the negatives, the room door did not properly latch, the freezer was iced over, and the hallways were very dusty. Overall, I am being picky. This is a great hotel. I was pretty disappointed I couldn't utilize the freezer, but i would reccommend this hotel and I will gladly stay here next time I am in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>First off, I very much enjoyed my stay at this property. I was given a room much larger than I needed, which was awesome! The staff was excellent as well as the free breakfast!As far as the negatives, the room door did not properly latch, the freezer was iced over, and the hallways were very dusty. Overall, I am being picky. This is a great hotel. I was pretty disappointed I couldn't utilize the freezer, but i would reccommend this hotel and I will gladly stay here next time I am in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r507077443-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>507077443</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Golden does not disappoint! Huge updated room!</t>
+  </si>
+  <si>
+    <t>Holiday Inns have been good to us in general. This one was one of the best! huge room and bathroom, everything super clean, people very nice. Usual breakfast provided, hot eggs and sausages, yogurts (lite as well as Greek), various breads and cinnamon rolls, bananas, apples, oranges.Room overlooks parking lot and in the distance beautiful mountains. 15 minutes away from Red Rocks where we are seeing a concert and also very close to a number of parks with gray views and hikes.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r506613263-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -504,9 +723,6 @@
     <t>Having landed at Denver airport at 17.30 we collected our car and sailed through to Golden. The hotel is clean and quiet. The staff are very helpful and pleasant. The breakfast plentiful and varied. We used the pool at 7am and felt right at home. A great start to our holiday. Thank you HIE.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r506580924-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -552,6 +768,48 @@
     <t>The hotel was overall nice unless you plan on sleeping here.  The walls and floors are paper thin which means you can hear every movement of the rooms around and above you.  We had been at a concert so we were tired.  A family of 6 was above us.  The kids started running and jumping off beds at 6:30am.  I called down to the front desk, when they finally answered they said  they would tale care  of it.  It made it worse.  When I walked to the front desk the night guy basically said "I'm the night guy, there is nothing I can do" so we left the hotel exhausted.  Given the number of families here, it will be an issue.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r499791439-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>499791439</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Within 2 minutes of checking into our room we found bugs crawling across the bed. Fearing these were bed bugs, we went to the front desk to ask for a new room. The front desk quickly changed us to a new room and was very apologetic. They also said that the manager would contact us first thing in the morning. We spent the next hour checking to see if we may have put our bags on a bed with bed bugs. Thank goodness we have an exterminator friend, he let us know that we had nothing to worry about. In the meantime, almost two weeks later, we have not heard from the manager. I did write a review with Holiday Inn Express, after they requested 3 times via email that I write a review, only to have my review rejected due to "mentioning other hotel brands" (I did not). The one great thing I can say is that the breakfast, and the breakfast staff, was wonderful. The second room we had did not have any visible bugs. The customer service was not visible either (but I did get 250 points added to my loyalty card for a 32,000 point bad experience). MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Within 2 minutes of checking into our room we found bugs crawling across the bed. Fearing these were bed bugs, we went to the front desk to ask for a new room. The front desk quickly changed us to a new room and was very apologetic. They also said that the manager would contact us first thing in the morning. We spent the next hour checking to see if we may have put our bags on a bed with bed bugs. Thank goodness we have an exterminator friend, he let us know that we had nothing to worry about. In the meantime, almost two weeks later, we have not heard from the manager. I did write a review with Holiday Inn Express, after they requested 3 times via email that I write a review, only to have my review rejected due to "mentioning other hotel brands" (I did not). The one great thing I can say is that the breakfast, and the breakfast staff, was wonderful. The second room we had did not have any visible bugs. The customer service was not visible either (but I did get 250 points added to my loyalty card for a 32,000 point bad experience). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r497138997-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>497138997</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Perfect Location</t>
+  </si>
+  <si>
+    <t>My husband and I picked this location because we were going to a concert at Red Rocks Amphitheater. The parking lot had plenty of spaces. Check in was smooth and we were given a very nice room. The room was large and clean. It had a Keurig coffeemaker, fridge and microwave. The king size bed was comfortable. It had a nice desk. The bathroom had lots of counter space and nice fluffy towels. The room had a modern design. The choices of restaurants were very good but you do need to drive to get to them. It was only a 10 minute drive to Red Rocks which was fantastic.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r491919038-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -582,9 +840,6 @@
     <t>Hotel is accessible to Golden and Denver, Lookout Mountain, and easy access to highway and mountain drives. Clean rooms, pool and hot tub clean and indoors, breakfast was good (eggs, bacon, sausage, biscuits/gravy, pancakes, fruits, cereal, etc). 4 stars instead of 5 because our door would not latch without us assisting it, air condioner rattled, and ceiling is thin as people above walked around all hours of the night. We will return though on future trips!</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r488821846-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -603,6 +858,42 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r487670970-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>487670970</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>I picked this hotel because it was one of the closest the Red Rocks.  Location is perfect and about 15 minute drive to the rocks.  It's located in a shopping center (home depot).  My room was large, clean, had a microwave and fridge.  Bathroom was excellent and had a very nice tub, including a big ledge for your beer... err I mean shampoo.  Excellent wifi.  There are many nearby restaurants a short drive away. (I recommend Rock Rest about 10 min drive.)   I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r486007246-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>486007246</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Stressful Business Trip Made Easier</t>
+  </si>
+  <si>
+    <t>This business trip involved presenting before the Best Grant Committee of the State Board of Education for a 15 million dollar grant for a new school building.  Needless to say, the stress level was high throughout these three days.....in comes the Holiday Inn Express and Suites near the site of the presentation where even the most intense stress was alleviated to a point by the courteous staff, excellent accommodations, and nourishing breakfast!!In addition to the stress of the circumstances, the weather was horrendous with a foot  of heavy spring snow in the parking lot the morning of the presentation...the hotel facility handled the situation with ease and caring....we were able to dig our cars out of the snow and make it to the Grant venue with time to spare....Sadly, there are no restaurant or lounge facilities near to the hotel, which meant we had to drive out each evening for dinner....however, the location of the Hotel relative to the main driving arteries could not be better...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>This business trip involved presenting before the Best Grant Committee of the State Board of Education for a 15 million dollar grant for a new school building.  Needless to say, the stress level was high throughout these three days.....in comes the Holiday Inn Express and Suites near the site of the presentation where even the most intense stress was alleviated to a point by the courteous staff, excellent accommodations, and nourishing breakfast!!In addition to the stress of the circumstances, the weather was horrendous with a foot  of heavy spring snow in the parking lot the morning of the presentation...the hotel facility handled the situation with ease and caring....we were able to dig our cars out of the snow and make it to the Grant venue with time to spare....Sadly, there are no restaurant or lounge facilities near to the hotel, which meant we had to drive out each evening for dinner....however, the location of the Hotel relative to the main driving arteries could not be better...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r485744008-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -657,7 +948,55 @@
     <t>EVERYONE was friendly &amp; talkative! The room was spacious &amp; stayed cool. Indoor warm pool. Free parking! The breakfast was AWESOME! They had SO many breakfast options &amp; it's FREE! I would definitely recommend &amp; stay again!!</t>
   </si>
   <si>
-    <t>08/03/2018</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r479855032-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>479855032</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Everything you need for a pleasant stay</t>
+  </si>
+  <si>
+    <t>My stay here was accidental due to the hotel next door overselling and not honoring my reservation. The other hotel's screw up ended up in me staying at this great Holiday Inn Express. The employees were extremely helpful (especially with my situation), the hotel is very clean, and my room was spacious, clean and comfortable. Plenty of power outlets and work space in the room which is important for people traveling on business or with lots of electronics. The breakfast had a large selection of items available that would cover any taste for breakfast, and tasted very good. Also great coffee!  So, my accidental stay here will result in me choosing this hotel in the future when I'm in Golden!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>My stay here was accidental due to the hotel next door overselling and not honoring my reservation. The other hotel's screw up ended up in me staying at this great Holiday Inn Express. The employees were extremely helpful (especially with my situation), the hotel is very clean, and my room was spacious, clean and comfortable. Plenty of power outlets and work space in the room which is important for people traveling on business or with lots of electronics. The breakfast had a large selection of items available that would cover any taste for breakfast, and tasted very good. Also great coffee!  So, my accidental stay here will result in me choosing this hotel in the future when I'm in Golden!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r478056971-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>478056971</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel on our way out West.  It is very convenient to I-70.  It is a relatively new establishment and the room was spotlessly clean, beautifully decorated, comfy beds, good wi-fi.  Breakfast was excellent as well.  Price was very reasonable, too.  Would definitely stay here again.  Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel on our way out West.  It is very convenient to I-70.  It is a relatively new establishment and the room was spotlessly clean, beautifully decorated, comfy beds, good wi-fi.  Breakfast was excellent as well.  Price was very reasonable, too.  Would definitely stay here again.  Highly recommend.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r476605008-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
@@ -675,15 +1014,6 @@
     <t>First, Lindsay at the front desk was awesome! Friendly, helpful, and customer service oriented!We stayed here so we could easily get up early and go the to Easter sunrise service at Red Rocks. The room was comfortable, newer, and clean. We stayed in the King nonsmoking suite and the extra sitting area was nice. The suite isn't a separate room, but we didn't need it to be. The location is a few miles from I-70 and another 1.5 miles off I-70 the other direction to Red Rocks. It took less than 10 minutes to get there.The breakfast was outstanding! Everything was delicious. Breakfast was open until 9:30am so we had time to get back after the service. There was a nice variety of egg white omelets, eggs, biscuits and gravy, sausage, AWESOME cinnamon rolls, pancakes, coffee, juice, oatmeal...plenty options for anyone.It's near a few restaurants and Home Depot. It's a little hard to see on the main road so pay attention to phone directions.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded April 24, 2017</t>
-  </si>
-  <si>
-    <t>Responded April 24, 2017</t>
-  </si>
-  <si>
     <t>First, Lindsay at the front desk was awesome! Friendly, helpful, and customer service oriented!We stayed here so we could easily get up early and go the to Easter sunrise service at Red Rocks. The room was comfortable, newer, and clean. We stayed in the King nonsmoking suite and the extra sitting area was nice. The suite isn't a separate room, but we didn't need it to be. The location is a few miles from I-70 and another 1.5 miles off I-70 the other direction to Red Rocks. It took less than 10 minutes to get there.The breakfast was outstanding! Everything was delicious. Breakfast was open until 9:30am so we had time to get back after the service. There was a nice variety of egg white omelets, eggs, biscuits and gravy, sausage, AWESOME cinnamon rolls, pancakes, coffee, juice, oatmeal...plenty options for anyone.It's near a few restaurants and Home Depot. It's a little hard to see on the main road so pay attention to phone directions.More</t>
   </si>
   <si>
@@ -738,6 +1068,48 @@
     <t>Nice place to stop for overnight on way up to ski. Easy to find 2 minutes off freeway. Clean, quiet and very comfortable bed. Made for a good night's sleep.  Breakfast was above average and a very friendly efficient service.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r469397136-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>469397136</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Wife's B-Day</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels and this one is up there with the best. Everyone was friendly and helpful. We stayed one night for my wife b-day and that morning the staff even sang happy B-day to her at breakfast. The breakfast was hot and fresh nothing went empty for more than a second then it was refilled. I definitely recommend this hotel as a place to stay on your next visit to Gloden. There is a lot to do in this area also very good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels and this one is up there with the best. Everyone was friendly and helpful. We stayed one night for my wife b-day and that morning the staff even sang happy B-day to her at breakfast. The breakfast was hot and fresh nothing went empty for more than a second then it was refilled. I definitely recommend this hotel as a place to stay on your next visit to Gloden. There is a lot to do in this area also very good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r468137626-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>468137626</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay in Colorado </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for three nights for a ski trip. The hotel was in a good location, once you figured out how to get to it from the highway. There were a lot of restaurants and some shopping nearby.The room was clean and comfortable. It's a new hotel with modern furnishings.Breakfast every day was very good and the lady doing the breakfast preparation was very friendly and helpful.I'd definitely recommend this hotel and would stay again without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for three nights for a ski trip. The hotel was in a good location, once you figured out how to get to it from the highway. There were a lot of restaurants and some shopping nearby.The room was clean and comfortable. It's a new hotel with modern furnishings.Breakfast every day was very good and the lady doing the breakfast preparation was very friendly and helpful.I'd definitely recommend this hotel and would stay again without hesitation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r466383972-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -751,12 +1123,6 @@
   </si>
   <si>
     <t>This is a fairly new property. Rooms and common areas are nicely decorated. Single room I had was spacious and the bed was really comfortable. Bathroom nice size and equipped with toiletries if you forgot something. Also quiet during the night so could sleep well. I have been in places where you could here doors slam in other parts of the building and people walking and talking. Main thing for me was the awesome complimentary breakfast. Nice assortment of beverages, rolls/Danish and hot food. Staff manning the breakfast are really friendly. Would highly recommend if needing a place to stay in the area. Conveniently located off of 70 and near restaurants. Close to downtown Golden.MoreShow less</t>
-  </si>
-  <si>
-    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded March 27, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 27, 2017</t>
   </si>
   <si>
     <t>This is a fairly new property. Rooms and common areas are nicely decorated. Single room I had was spacious and the bed was really comfortable. Bathroom nice size and equipped with toiletries if you forgot something. Also quiet during the night so could sleep well. I have been in places where you could here doors slam in other parts of the building and people walking and talking. Main thing for me was the awesome complimentary breakfast. Nice assortment of beverages, rolls/Danish and hot food. Staff manning the breakfast are really friendly. Would highly recommend if needing a place to stay in the area. Conveniently located off of 70 and near restaurants. Close to downtown Golden.More</t>
@@ -804,9 +1170,6 @@
     <t>I was there for an extended weekend and the service there was excellent. The room I stayed in was clean and comfortable. Typically I have problems sleeping through the night uninterrupted- but this bed was so comfortable I slept soundly every night. There is a morning breakfast bar, served by Arlene and her colleagues-- good variety of food. The staff was all friendly and informative. A place I would return if visiting the area again!MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded January 31, 2017</t>
   </si>
   <si>
@@ -816,6 +1179,54 @@
     <t>I was there for an extended weekend and the service there was excellent. The room I stayed in was clean and comfortable. Typically I have problems sleeping through the night uninterrupted- but this bed was so comfortable I slept soundly every night. There is a morning breakfast bar, served by Arlene and her colleagues-- good variety of food. The staff was all friendly and informative. A place I would return if visiting the area again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r452791340-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>452791340</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Pre ski stopover</t>
+  </si>
+  <si>
+    <t>We arrived tired and hungry. Check in was seamless, our room was spacious and clean, and wifi worked well. The front desk was helpful with restaurant suggestions and the pool was clean. My eight year old liked the hot tub and swimming. We slept great, comfortable beds and quiet. Perfect stopover spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>We arrived tired and hungry. Check in was seamless, our room was spacious and clean, and wifi worked well. The front desk was helpful with restaurant suggestions and the pool was clean. My eight year old liked the hot tub and swimming. We slept great, comfortable beds and quiet. Perfect stopover spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r449980141-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>449980141</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Disappointment at Best</t>
+  </si>
+  <si>
+    <t>My husband is a platinum level H.I. member  We booked our room many  months in advance and asked for a room with a view if possible.  Not only did we NOT get a room with a view we had no view at all as we were put behind the canopy over the lobby door.  We literally looked at the back of the entrance canopy and its post.  We immediately said the room was not acceptable especially since we had booked on 4/16/16 and it was now late September and  how could this be the best room available.  We were told by David  there was nothing they could do.  We stayed in the room but later that evening I spoke to Alisha at front desk and she said all the rooms had been given to guests of multiple weddings.   I felt our reservations made so far in advance and the fact that we were very good customers over many many years as opposed to an occasional out of town visitor in town for a wedding merited us a much better room.  Well it didn't happen and  I am just warning Priority Club members beware of this Holiday Inn Express as they are not concerned about their best customers. No we would not go back to this H.I. Exp.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff_Golden, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>My husband is a platinum level H.I. member  We booked our room many  months in advance and asked for a room with a view if possible.  Not only did we NOT get a room with a view we had no view at all as we were put behind the canopy over the lobby door.  We literally looked at the back of the entrance canopy and its post.  We immediately said the room was not acceptable especially since we had booked on 4/16/16 and it was now late September and  how could this be the best room available.  We were told by David  there was nothing they could do.  We stayed in the room but later that evening I spoke to Alisha at front desk and she said all the rooms had been given to guests of multiple weddings.   I felt our reservations made so far in advance and the fact that we were very good customers over many many years as opposed to an occasional out of town visitor in town for a wedding merited us a much better room.  Well it didn't happen and  I am just warning Priority Club members beware of this Holiday Inn Express as they are not concerned about their best customers. No we would not go back to this H.I. Exp.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r435993219-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -888,6 +1299,54 @@
     <t>We typically have no problems with HIE properties and this one was no different.  Nice personnel, good breakfast and comfortable room.  Stayed there after flying into to Denver on our way to Rocky Mountain National Park.   Would stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r428891764-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>428891764</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Will stay here again if in the area!</t>
+  </si>
+  <si>
+    <t>Everyone from the front desk people to the ladies at the morning buffet to building maintenance are extremely nice.  We couldn't have picked a friendlier place to stay. The hotel and rooms were very clean. We were there for a concert at Red Rocks and it's less than 10 minutes from there. Loved the location.  Good variety of food for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Everyone from the front desk people to the ladies at the morning buffet to building maintenance are extremely nice.  We couldn't have picked a friendlier place to stay. The hotel and rooms were very clean. We were there for a concert at Red Rocks and it's less than 10 minutes from there. Loved the location.  Good variety of food for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r428125176-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>428125176</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss it already </t>
+  </si>
+  <si>
+    <t>This hotel is amazing and the staff was very helpful. Very convenient to all visitors places and Denver airport.  The cinnamon rolls are outstanding and the rest of the breakfast was to. Front desk helps in any way possible and you feel at home!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is amazing and the staff was very helpful. Very convenient to all visitors places and Denver airport.  The cinnamon rolls are outstanding and the rest of the breakfast was to. Front desk helps in any way possible and you feel at home!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r426507876-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -963,6 +1422,57 @@
     <t>I stayed in room #110 and got four hours sleep. I was worried it was going to be a bad room the moment I saw where it was: ground floor, next to the elevators, steps away from the lobby and breakfast area. Stupidly, i still moved into the room and tried to fall asleep at ten. The next several hours had a constant parade of merry guest coming back to the hotel from wherever they went. All chatty and loud waiting for the elevators or just milling around the lobby: I don't blame them. From 2 AM until 5 AM the night was only interrupted by every phone call that came to the front desk. Then the breakfast set up started. Never, ever, accept room #110. I blame the hotel for cramming a room in a place that's only suitable for people with a hearing aid that can be switched off.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r417251501-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>417251501</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>I was impressed at how big the room was!  The hotel seems to be pretty much brand new.  The staff was great.  We chose this hotel due to the reviews and the fact that we were going to a concert at red rocks.  It did not disappoint!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>I was impressed at how big the room was!  The hotel seems to be pretty much brand new.  The staff was great.  We chose this hotel due to the reviews and the fact that we were going to a concert at red rocks.  It did not disappoint!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r413705072-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>413705072</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Nice New Property</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for a couple of nights.  Close to School of Mines, JeffCo court and other Golden destinations.  Rooms are comfortable; pool, Jacuzzi and gym are nice; breakfast is usual free fare, but servers are especially dedicated to making sure you get what you need.  All staff are friendly and efficient.  Plenty of free parking (be watchful for delineation of parking for Hampton Inn).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for a couple of nights.  Close to School of Mines, JeffCo court and other Golden destinations.  Rooms are comfortable; pool, Jacuzzi and gym are nice; breakfast is usual free fare, but servers are especially dedicated to making sure you get what you need.  All staff are friendly and efficient.  Plenty of free parking (be watchful for delineation of parking for Hampton Inn).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r413365227-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -978,15 +1488,6 @@
     <t>We chose this hotel for its cleanliness and closeness to Red Rocks amphitheater. We will certainly stay here again. Less than 10 minutes to the venue. Downside is there is not much open around hotel after 10pm. Like food or drinks. MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded September 2, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 2, 2016</t>
-  </si>
-  <si>
     <t>We chose this hotel for its cleanliness and closeness to Red Rocks amphitheater. We will certainly stay here again. Less than 10 minutes to the venue. Downside is there is not much open around hotel after 10pm. Like food or drinks. More</t>
   </si>
   <si>
@@ -1038,6 +1539,65 @@
     <t>I stayed here recently for 4 nights on business.  I always stay at Holiday Inn Express when possible as I'm a member of their frequent club and also they are consistently acceptable lodging.  This location turns out to be kind of in the middle of nowhere, about halfway between Lakewood and Golden, so be prepared to drive anywhere you need to go.  The only food by the hotel is a Jack-in-the-Box, so be prepared to drive 5+ miles for real food as well.  This would be a good location to stay if you were attending a concert at nearby Red Ricks Amphitheater or otherwise wanted to check out Red Ricks park (it's free and open except on afternoons/evenings they are having concerts).The hotel itself is like all other Holiday Inn Express - this is a newer one so everything in good shape.  Free breakfast is same mediocre fare they have at all HIE's - kids enjoy it and it's simple for me n work travel but it's certainly nothing special.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r406374545-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>406374545</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Service as it should be.o</t>
+  </si>
+  <si>
+    <t>I prefer the Holiday Inn Express brand for their consistency of facilities and of course the Cinnamon rolls. They are a bit pricier, but mostly deliver value. This hotel exceeded our expectations. Service from the front desk on check in blew us away, our room wasn't quite ready  (maybe a two minute delay) so the desk folk offered a variety of freebies to compensate. They were friendly and professional. A rarity this days in the hospitality industry. One minor negative this brands tends to have almost hidden entrances, after 12 hours on the road can be hard to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>I prefer the Holiday Inn Express brand for their consistency of facilities and of course the Cinnamon rolls. They are a bit pricier, but mostly deliver value. This hotel exceeded our expectations. Service from the front desk on check in blew us away, our room wasn't quite ready  (maybe a two minute delay) so the desk folk offered a variety of freebies to compensate. They were friendly and professional. A rarity this days in the hospitality industry. One minor negative this brands tends to have almost hidden entrances, after 12 hours on the road can be hard to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r405945222-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>405945222</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Excellent HIE property, close to outdoor fun</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for a long weekend getaway. Lots of good to say about this HIE, very little not so good.
+GOOD: Spacious rooms with new everything! Large "mini" fridge, microwave, flat screen TV (full satellite offerings), etc.
+Decent breakfast, with never anything missing. We even took a few bagels &amp; PB or cream cheese and an apple to take with us on our day hikes into the mountains. Ladies were always very helpful and cordial.
+Location (although hard to find -- see below) is ideal for day trips into the mountains. Just a few minutes from Red Rocks and Golden Gate Canyon State Park. Not far from Downtown Golden too.
+Again, as others have also said, the staff is top notch. Very pleasant and down-to-earth folks. Very genuine people.
+NOT SO GOOD: Breakfast is your basic HIE fare. Not bad, but some more fresh fruit options would be ideal. Pancake maker was rarely fully functional.
+Very difficult to locate with any standard GPS or Google Maps. Kind of at a confluence of 3 highways. Like others have said, look for the drivers license office. It's also in the same shopping center as Home Depot, if that helps. Once you find it, you'll get it figured it out.
+Wifi was intermittent. Seemed like a temporary problem, but even when "fixed" it was slow and spotty. Might be worth calling ahead to check the wifi status before you...My wife and I stayed here for a long weekend getaway. Lots of good to say about this HIE, very little not so good.GOOD: Spacious rooms with new everything! Large "mini" fridge, microwave, flat screen TV (full satellite offerings), etc.Decent breakfast, with never anything missing. We even took a few bagels &amp; PB or cream cheese and an apple to take with us on our day hikes into the mountains. Ladies were always very helpful and cordial.Location (although hard to find -- see below) is ideal for day trips into the mountains. Just a few minutes from Red Rocks and Golden Gate Canyon State Park. Not far from Downtown Golden too.Again, as others have also said, the staff is top notch. Very pleasant and down-to-earth folks. Very genuine people.NOT SO GOOD: Breakfast is your basic HIE fare. Not bad, but some more fresh fruit options would be ideal. Pancake maker was rarely fully functional.Very difficult to locate with any standard GPS or Google Maps. Kind of at a confluence of 3 highways. Like others have said, look for the drivers license office. It's also in the same shopping center as Home Depot, if that helps. Once you find it, you'll get it figured it out.Wifi was intermittent. Seemed like a temporary problem, but even when "fixed" it was slow and spotty. Might be worth calling ahead to check the wifi status before you arrive, if this is important to you.Without the "not so good" this would be a 5 star review. Don't let those items keep you from staying here though. Very reasonably priced for what you get, compared to other similar chains, and the nearby access to the great outdoors should make this a property you seriously consider.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for a long weekend getaway. Lots of good to say about this HIE, very little not so good.
+GOOD: Spacious rooms with new everything! Large "mini" fridge, microwave, flat screen TV (full satellite offerings), etc.
+Decent breakfast, with never anything missing. We even took a few bagels &amp; PB or cream cheese and an apple to take with us on our day hikes into the mountains. Ladies were always very helpful and cordial.
+Location (although hard to find -- see below) is ideal for day trips into the mountains. Just a few minutes from Red Rocks and Golden Gate Canyon State Park. Not far from Downtown Golden too.
+Again, as others have also said, the staff is top notch. Very pleasant and down-to-earth folks. Very genuine people.
+NOT SO GOOD: Breakfast is your basic HIE fare. Not bad, but some more fresh fruit options would be ideal. Pancake maker was rarely fully functional.
+Very difficult to locate with any standard GPS or Google Maps. Kind of at a confluence of 3 highways. Like others have said, look for the drivers license office. It's also in the same shopping center as Home Depot, if that helps. Once you find it, you'll get it figured it out.
+Wifi was intermittent. Seemed like a temporary problem, but even when "fixed" it was slow and spotty. Might be worth calling ahead to check the wifi status before you...My wife and I stayed here for a long weekend getaway. Lots of good to say about this HIE, very little not so good.GOOD: Spacious rooms with new everything! Large "mini" fridge, microwave, flat screen TV (full satellite offerings), etc.Decent breakfast, with never anything missing. We even took a few bagels &amp; PB or cream cheese and an apple to take with us on our day hikes into the mountains. Ladies were always very helpful and cordial.Location (although hard to find -- see below) is ideal for day trips into the mountains. Just a few minutes from Red Rocks and Golden Gate Canyon State Park. Not far from Downtown Golden too.Again, as others have also said, the staff is top notch. Very pleasant and down-to-earth folks. Very genuine people.NOT SO GOOD: Breakfast is your basic HIE fare. Not bad, but some more fresh fruit options would be ideal. Pancake maker was rarely fully functional.Very difficult to locate with any standard GPS or Google Maps. Kind of at a confluence of 3 highways. Like others have said, look for the drivers license office. It's also in the same shopping center as Home Depot, if that helps. Once you find it, you'll get it figured it out.Wifi was intermittent. Seemed like a temporary problem, but even when "fixed" it was slow and spotty. Might be worth calling ahead to check the wifi status before you arrive, if this is important to you.Without the "not so good" this would be a 5 star review. Don't let those items keep you from staying here though. Very reasonably priced for what you get, compared to other similar chains, and the nearby access to the great outdoors should make this a property you seriously consider.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r404330773-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1113,6 +1673,45 @@
     <t>My husband and I stayed at this hotel to attend a concert at Red Rocks Amphitheatre. Our room was large and clean and quite comfortable! The complimentary breakfast was very good! There was plenty of free parking and the location was ideal.....a short drive to plenty of restaurants and shopping! My only complaint is that our room was not available until after 4:00 on the day we checked in. To be fair though, we were there on the weekend of the Buffalo Bill Festival...a very busy time in Golden! The staff was super friendly and very apologetic about the delay. :-)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r400548250-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>400548250</t>
+  </si>
+  <si>
+    <t>Difficult to find but very nice</t>
+  </si>
+  <si>
+    <t>The Garmin GPS sent us 2 miles away and then GoogleMaps took us close but still not to the hotel, so be aware. Look for the drivers license office sign, it is in the same shopping complex area. It is worth the trouble of finding this hotel. It is less than year old and it shows with basically everything looking still new. The staff is very friendly, the breakfast the standard for a Holliday Inn Express and it was well maintained during. There are few restaurants close by but within a few miles there will be more choices than you could imagine. Although close to the highway you hear nothing in the rooms, very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Garmin GPS sent us 2 miles away and then GoogleMaps took us close but still not to the hotel, so be aware. Look for the drivers license office sign, it is in the same shopping complex area. It is worth the trouble of finding this hotel. It is less than year old and it shows with basically everything looking still new. The staff is very friendly, the breakfast the standard for a Holliday Inn Express and it was well maintained during. There are few restaurants close by but within a few miles there will be more choices than you could imagine. Although close to the highway you hear nothing in the rooms, very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r398424400-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>398424400</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Not quite a Golden stay, but ok.</t>
+  </si>
+  <si>
+    <t>Stayed three nights as part of a road trip from Chicago to Los Angeles.Plenty of free parking. Staff very friendly and welcoming, but not welcomed as a Gold HIG member!Good size room, clean and tidy. Microwave and large fridge. Good size TV with a good selection of channels many in HD. Comfortable beds. Wi-Fi mostly good with a speed of around 8 to 12 mbps but did suffer with periods of drop out and slowing down.Large bathroom, clean and tidy. Good size counter top. Plenty of hot water with good pressure. Extractor next to useless, so a bit of a shower/sauna!Good size breakfast area with good selection.Did not use pool or other amenities.Walls appeared a bit thin, aware of other voices. No eateries nearby so need to drive a few miles.Good location for Rocky Mountains national park.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed three nights as part of a road trip from Chicago to Los Angeles.Plenty of free parking. Staff very friendly and welcoming, but not welcomed as a Gold HIG member!Good size room, clean and tidy. Microwave and large fridge. Good size TV with a good selection of channels many in HD. Comfortable beds. Wi-Fi mostly good with a speed of around 8 to 12 mbps but did suffer with periods of drop out and slowing down.Large bathroom, clean and tidy. Good size counter top. Plenty of hot water with good pressure. Extractor next to useless, so a bit of a shower/sauna!Good size breakfast area with good selection.Did not use pool or other amenities.Walls appeared a bit thin, aware of other voices. No eateries nearby so need to drive a few miles.Good location for Rocky Mountains national park.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r397540658-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1128,12 +1727,6 @@
     <t>I enjoyed my 2 night stay here.  The Hotel is clean, serve a nice breakfast, have pool and workout room and the rooms are very nice.  Excellent customer service by the front desk and they have snacks and food in a very very small snack area.  I would stay again, the price was a little high, around 200 a night but I was in peak season.MoreShow less</t>
   </si>
   <si>
-    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 29, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 29, 2016</t>
-  </si>
-  <si>
     <t>I enjoyed my 2 night stay here.  The Hotel is clean, serve a nice breakfast, have pool and workout room and the rooms are very nice.  Excellent customer service by the front desk and they have snacks and food in a very very small snack area.  I would stay again, the price was a little high, around 200 a night but I was in peak season.More</t>
   </si>
   <si>
@@ -1188,6 +1781,54 @@
     <t>We stayed here so we didn't have to drive into the mountains at night.  The kids enjoyed the pool although it closed fairly early.  The rooms were spacious and clean.  The breakfast is your typical Holiday Inn breakfast.  They were out of many items when we were there (there was apparently an issue with a delivery they were suppose to have).  We would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r390794859-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>390794859</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Best staff ever. Best rooms ever. Best price ever.</t>
+  </si>
+  <si>
+    <t>Lets start with the bad, don't worry there's not too much. The breakfast is well intended but not great, like all other holiday inn expresses. But don't worry that can be fixed. Add make your own waffles, and more fresh ingredients. Now the good. This is the best hotel staff I've ever seen. Ever staff member we encountered was extremely nice and super helpful. The man with the British Accent was especially accommodating. The hotel seems to be brand new, has beautiful facilities for hotel use. including an indoor pool, fitness centre, and business centre. The rooms are beautiful, rivallingMoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Lets start with the bad, don't worry there's not too much. The breakfast is well intended but not great, like all other holiday inn expresses. But don't worry that can be fixed. Add make your own waffles, and more fresh ingredients. Now the good. This is the best hotel staff I've ever seen. Ever staff member we encountered was extremely nice and super helpful. The man with the British Accent was especially accommodating. The hotel seems to be brand new, has beautiful facilities for hotel use. including an indoor pool, fitness centre, and business centre. The rooms are beautiful, rivallingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r389942032-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>389942032</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a wedding</t>
+  </si>
+  <si>
+    <t>Came here with family for a wedding. The hotel was nice and clean. The rooms were nice. We asked for an additional key to our room a couple of times and it never worked properly so we gave up. The front desk staff was helpful and friendly one day and dismissive the next. It just depended on who was working. The continental breakfast was typical but well stocked and clean. The location was ideal for access to the mountains and downtown Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Came here with family for a wedding. The hotel was nice and clean. The rooms were nice. We asked for an additional key to our room a couple of times and it never worked properly so we gave up. The front desk staff was helpful and friendly one day and dismissive the next. It just depended on who was working. The continental breakfast was typical but well stocked and clean. The location was ideal for access to the mountains and downtown Denver. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r389231250-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1227,9 +1868,6 @@
     <t>This was the only hotel room this time I found anywhere close to the Coors Brewery where I work. It is not a hotel I am staying in usually and was very positively surprised. Very nice and efficient staff at check in (with a lot of people checking in at the same time) Nice, big, clean room with Microwave and Refrigerator. Good cable TV choices. Free WiFi. Good working, quiet AirCon. Plenty of parking. Safe Neighborhood. Free Breakfast. This was the best free Breakfast I had in a long time. Lots of choices. And both mornings the person who prepared the food was very nice. I really recommend this hotel.MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 30, 2016</t>
   </si>
   <si>
@@ -1263,6 +1901,48 @@
     <t>This place has both pros and cons First off, the pros: New hotel(opened Sept 2015)Indoor PoolFree BreakfastLocated next to Home Depot, Petco, and I-70Now, the cons:We reserved the room on the day we arrived(we stayed only 1 night) and the price was around $200! I understand you're a new hotel, but do you have 2 queen rooms with a sofabed? Because our room was a King Suite with a hallway. Otherwise a good place to stay, but do some research before you go.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r384733128-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>384733128</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Closest to Red rocks!</t>
+  </si>
+  <si>
+    <t>Nice safe hotel close to everything west of Denver including Red Rocks park.  Can't complain as the stay was nice. Indoor pool and free breakfast.  Newer hotel with everything you need. Friendly staff and comfortable rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Nice safe hotel close to everything west of Denver including Red Rocks park.  Can't complain as the stay was nice. Indoor pool and free breakfast.  Newer hotel with everything you need. Friendly staff and comfortable rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r384404390-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>384404390</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Poor Customer Service, Average Quality Place</t>
+  </si>
+  <si>
+    <t>We made a reservation online and thought we were given the best rate.  After checking in last night I discovered a lower senior rate.  When I inquired they had some lame excuse as to why we couldn't get the lower rate.  We usually stay at LaQuintas and I'm sure they would have changed it for us.  This place wasn't any better either - it was neither better nor worse than a newer LaQuinta.  Plus the refrigerator froze the food we'd purchase for a picnic on the way home and the AC rattled every time it went on.  Their response:  "Sorry."MoreShow less</t>
+  </si>
+  <si>
+    <t>We made a reservation online and thought we were given the best rate.  After checking in last night I discovered a lower senior rate.  When I inquired they had some lame excuse as to why we couldn't get the lower rate.  We usually stay at LaQuintas and I'm sure they would have changed it for us.  This place wasn't any better either - it was neither better nor worse than a newer LaQuinta.  Plus the refrigerator froze the food we'd purchase for a picnic on the way home and the AC rattled every time it went on.  Their response:  "Sorry."More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r384095662-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1338,6 +2018,45 @@
     <t>Had such a great stay at this hotel.  Staff was so pleasant,  the room was laid out very functionally and was spotless.  The bed was super comfortable.  The breakfast area was very organized to allow  us to quickly get our breakfast and get on with our vacation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r381260388-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>381260388</t>
+  </si>
+  <si>
+    <t>Super shelter in a storm</t>
+  </si>
+  <si>
+    <t>Came here after caught in a rain/Gail storm on motorcycles.   It was awesome how we were welcomed.   The staff is great. We found Matt to be very helpful.   He helped us with laundry change as well as recommended the best options for diner.  I was very impressed with the clean, large room and bath.  The beds were very comfortable.   Well worth a visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Came here after caught in a rain/Gail storm on motorcycles.   It was awesome how we were welcomed.   The staff is great. We found Matt to be very helpful.   He helped us with laundry change as well as recommended the best options for diner.  I was very impressed with the clean, large room and bath.  The beds were very comfortable.   Well worth a visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r380925332-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>380925332</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, quiet, comfortable.  </t>
+  </si>
+  <si>
+    <t>Very nice room, nicely decorated.  Comfortable bed and pillows.  Great water pressure in the shower (always a bonus in my book).  Friendly staff.  The breakfast in the morning was just so-so.  I wanted a hard boiled egg but they looked suspect as they were resting in a significant amount of water.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Very nice room, nicely decorated.  Comfortable bed and pillows.  Great water pressure in the shower (always a bonus in my book).  Friendly staff.  The breakfast in the morning was just so-so.  I wanted a hard boiled egg but they looked suspect as they were resting in a significant amount of water.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r380306833-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1410,6 +2129,53 @@
     <t>This is a new hotel, it's situated (as most are) adjacent to a (quiet) retail business zone but don't let that put you off, it's actually in a really great spot for accessing the nearby towns of Golden, Morrison and Boulder and it's not difficult to drive into Denver from this location. We were in the Rockies National Park an hour after leaving the parking lot. Plenty of free parking too.The hotel itself is smart and efficient, breakfast is self service but with plenty of choice. The rooms were great, plenty of space and very comfortable, we had a mountain view. Staff were attentive and helpful. This isn't a luxury hotel but it's still very good and great value for money. I would recommend it without hesitation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r375658077-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>375658077</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Beautiful New Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is less than one year old so consequently everything is extremely new and and clean. It is a lovely hotel with extremely helpful staff. A free full breakfast is offered every morning. A little variety would be nice but if you're only staying a night or two the breakfast is certainly fulfilling. The rooms are large with flat TVs, microwave, refrigerator, Kuerig coffee maker and a large bathroom. We thoroughly enjoyed our visit with one exception which is why I only gave the hotel an average rating. On our third night at the hotel we returned to find our room uncleaned and not made up. We reported this to the night staff who said they would take care of the situation but when we returned from dinner we found our room in the same state. By this time of night, it didn't matter anymore so we asked if they would comp us the room for the night. The night said he would talk to the manager who would call us himself. The next morning we received a phone call from the manager, Michael Bauer.
+Mr.Bauer was very rude and refused to do anything to compensate us for the inconvenience. He insisted the room was not made us because the Do Not Disturb sign was left on the door. We are 100% sure the sign was not on the door because this is something we are very conscious of...This hotel is less than one year old so consequently everything is extremely new and and clean. It is a lovely hotel with extremely helpful staff. A free full breakfast is offered every morning. A little variety would be nice but if you're only staying a night or two the breakfast is certainly fulfilling. The rooms are large with flat TVs, microwave, refrigerator, Kuerig coffee maker and a large bathroom. We thoroughly enjoyed our visit with one exception which is why I only gave the hotel an average rating. On our third night at the hotel we returned to find our room uncleaned and not made up. We reported this to the night staff who said they would take care of the situation but when we returned from dinner we found our room in the same state. By this time of night, it didn't matter anymore so we asked if they would comp us the room for the night. The night said he would talk to the manager who would call us himself. The next morning we received a phone call from the manager, Michael Bauer.Mr.Bauer was very rude and refused to do anything to compensate us for the inconvenience. He insisted the room was not made us because the Do Not Disturb sign was left on the door. We are 100% sure the sign was not on the door because this is something we are very conscious of and are always make sure the sign is removed before leaving for the day. Rather than caring about satisfying his customers, Mr. Bauer refused to believe us or listen to us. He said, and I quote, "I am not going to do anything about the lack of service yesterday." When we asked for a voucher for a future stay, he said "I am not going to do that." His attitude was stubborn, rude and condescending. He did not care if we ever returned or wrote anundesirable review on TripAdvisor. Mr. Bauer was the only bad part of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff303, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is less than one year old so consequently everything is extremely new and and clean. It is a lovely hotel with extremely helpful staff. A free full breakfast is offered every morning. A little variety would be nice but if you're only staying a night or two the breakfast is certainly fulfilling. The rooms are large with flat TVs, microwave, refrigerator, Kuerig coffee maker and a large bathroom. We thoroughly enjoyed our visit with one exception which is why I only gave the hotel an average rating. On our third night at the hotel we returned to find our room uncleaned and not made up. We reported this to the night staff who said they would take care of the situation but when we returned from dinner we found our room in the same state. By this time of night, it didn't matter anymore so we asked if they would comp us the room for the night. The night said he would talk to the manager who would call us himself. The next morning we received a phone call from the manager, Michael Bauer.
+Mr.Bauer was very rude and refused to do anything to compensate us for the inconvenience. He insisted the room was not made us because the Do Not Disturb sign was left on the door. We are 100% sure the sign was not on the door because this is something we are very conscious of...This hotel is less than one year old so consequently everything is extremely new and and clean. It is a lovely hotel with extremely helpful staff. A free full breakfast is offered every morning. A little variety would be nice but if you're only staying a night or two the breakfast is certainly fulfilling. The rooms are large with flat TVs, microwave, refrigerator, Kuerig coffee maker and a large bathroom. We thoroughly enjoyed our visit with one exception which is why I only gave the hotel an average rating. On our third night at the hotel we returned to find our room uncleaned and not made up. We reported this to the night staff who said they would take care of the situation but when we returned from dinner we found our room in the same state. By this time of night, it didn't matter anymore so we asked if they would comp us the room for the night. The night said he would talk to the manager who would call us himself. The next morning we received a phone call from the manager, Michael Bauer.Mr.Bauer was very rude and refused to do anything to compensate us for the inconvenience. He insisted the room was not made us because the Do Not Disturb sign was left on the door. We are 100% sure the sign was not on the door because this is something we are very conscious of and are always make sure the sign is removed before leaving for the day. Rather than caring about satisfying his customers, Mr. Bauer refused to believe us or listen to us. He said, and I quote, "I am not going to do anything about the lack of service yesterday." When we asked for a voucher for a future stay, he said "I am not going to do that." His attitude was stubborn, rude and condescending. He did not care if we ever returned or wrote anundesirable review on TripAdvisor. Mr. Bauer was the only bad part of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r375557793-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>375557793</t>
+  </si>
+  <si>
+    <t>Terrible Management</t>
+  </si>
+  <si>
+    <t>We are Holiday Inn priority members and credit card holders. We booked our family trip in January for the following May, for five people. We called the hotel ahead of time and we were assured if a suite was unavailable, we would be given a rollaway bed to accommodate our family. Upon arrival around 2:30 am, we were told there were no suites, and the rollaway bed could not be placed in our room. There was another room available with a king, and we asked for that room as well so everyone in my family would have a bed. However, we were NOT given this room. The manager refused to comp our room, and knowingly ALLOWED someone in my family to sleep on the floor. We were given a comforter and blankets to have my family member sleep on the floor, and we were repulsed at the hospitality. I have never been treated so poorly as a hotel guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel_Staff303, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>We are Holiday Inn priority members and credit card holders. We booked our family trip in January for the following May, for five people. We called the hotel ahead of time and we were assured if a suite was unavailable, we would be given a rollaway bed to accommodate our family. Upon arrival around 2:30 am, we were told there were no suites, and the rollaway bed could not be placed in our room. There was another room available with a king, and we asked for that room as well so everyone in my family would have a bed. However, we were NOT given this room. The manager refused to comp our room, and knowingly ALLOWED someone in my family to sleep on the floor. We were given a comforter and blankets to have my family member sleep on the floor, and we were repulsed at the hospitality. I have never been treated so poorly as a hotel guest.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r373938601-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1449,12 +2215,6 @@
     <t>Hair was in the bathroom prior to our arrival, the garbage cans were not emptied by housekeeping after the first night and it was obvious the bathroom floor was not cleaned. The onsite manager was non existent during our stay to discuss the cleanliness issue and the morning front desk staff person handled my complaint about the cleanlinss issue poorly. He lacked concern over the issue and was extremely rude and argumentative. Stay elsewhere.MoreShow less</t>
   </si>
   <si>
-    <t>Hotel_Staff303, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded May 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 25, 2016</t>
-  </si>
-  <si>
     <t>Hair was in the bathroom prior to our arrival, the garbage cans were not emptied by housekeeping after the first night and it was obvious the bathroom floor was not cleaned. The onsite manager was non existent during our stay to discuss the cleanliness issue and the morning front desk staff person handled my complaint about the cleanlinss issue poorly. He lacked concern over the issue and was extremely rude and argumentative. Stay elsewhere.More</t>
   </si>
   <si>
@@ -1485,6 +2245,48 @@
     <t>We left another hotel to stay here, because it wasn't up to our standards.  I was So happy we did,  Everything here was so clean and bright.  This is a pretty new hotel.  Rooms were big, beds were VERY comfortable.  They have Keurig machines in every room, with the coffee pods.  Refrigerator, flat screen TV and microwave in the room.  We were here because my daughter had a baby, The breakfasts are very nice, the pancake maker was the bomb.  Miss Arlene was working the breakfast buffet that day, when we told here my daughter was in the hospital, she wrapped up 2 cinnamon rolls for us to take to her. The general manager came up at the same time and actually placed them in individual containers for us.  That little bit of kindness meant the world to me, and I wont forget.   Thank you Miss Arlene and Michael for being so sweet.  EVERYBODY behind the front desk were SO friendly, I wish I knew their names.  NOT ONE COMPLAINT .   This is the only hotel I will stay at in Golden.  The restaurants are in walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r364719572-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>364719572</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Everything you'd expect</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights while visiting the area.  As a Holiday Inn Express it met all my expectations for our stay.  The British gentleman working the front desk when we checked in was especially friendly and helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael B, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights while visiting the area.  As a Holiday Inn Express it met all my expectations for our stay.  The British gentleman working the front desk when we checked in was especially friendly and helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r364227153-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>364227153</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Good hotel, great breakfast</t>
+  </si>
+  <si>
+    <t>Stayed for just one night on my way up to the mountains.  The staff was really friendly and helpful even when I didn't show up until after 11pm.  The rooms are clean and seem very new.  I didn't think the beds were all that great, they were very firm and I am not a big fan of that.  The highlight for me was the breakfast.  Very good selection of hot entrees including eggs, sausage, biscuits and gravy and pancakes.  Also a good selection of cereals, breads and pastries, and yogurt.  For a small hotel like this, it was one of the best spreads I have seen for breakfast.  For travellers not familiar with the area, there isn't a lot within walking distance but the Colorado Mills mall is a very short drive away and has plenty of restaurants and shopping.  I would recommend staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for just one night on my way up to the mountains.  The staff was really friendly and helpful even when I didn't show up until after 11pm.  The rooms are clean and seem very new.  I didn't think the beds were all that great, they were very firm and I am not a big fan of that.  The highlight for me was the breakfast.  Very good selection of hot entrees including eggs, sausage, biscuits and gravy and pancakes.  Also a good selection of cereals, breads and pastries, and yogurt.  For a small hotel like this, it was one of the best spreads I have seen for breakfast.  For travellers not familiar with the area, there isn't a lot within walking distance but the Colorado Mills mall is a very short drive away and has plenty of restaurants and shopping.  I would recommend staying here in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r361797782-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1551,6 +2353,42 @@
     <t>We were visiting Denver for a wedding out at Chief Hosa lodge. This Golden location put us only 10 minutes from the wedding, at the foothills of the mountain and in the perfect location to enjoy the mountains and the many tours/museums/outdoor experiences of the area. It only took us 10-15 minutes to get downtown as well, so it was ideal.The hotel seemed very new, the staff was exceptionally friendly and accommodating, and the rooms were nice-sized and well-furnished (including microwave and fridge in each room was great).The view of the mountains even from the hotel room was great!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r357929213-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>357929213</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Two-night close-to-home "vacation"</t>
+  </si>
+  <si>
+    <t>We have had very good experiences at Holiday Inns Express in the past and were happy to learn there was a new one in Golden where we wanted to spend a few days during spring break. We booked an "executive suite" to be sure we'd have ample room and more than one comfortable chair (and it was affordable), and we did. There was also a sofa bed, a desk, and two TVs. There are a few reasons I didn't rate it "very good." The spacious bathroom had minimal counter space for storing one's cosmetics, medicines, etc. We could hear the footsteps of people above us, and at another time, we could hear someone talking from a nearby room, but fortunately, there was no disturbance after 10:00 P.M. This was surprising as it had not been our experience at other HIEs. The "kitchenette" included a mini-fridge and microwave, but no sink. Utensils had to be requested from the front desk. The decor, while it included nifty photos of historic sites nearby (unfortunately lacking labels), was depressingly bland--all blacks, browns, beiges, and grays with a rare punch of orange--perhaps it's just today's style. The king bed was comfortable although even the "soft" pillow was too big for me. We had to track down the housekeeper to get toilet and facial tissue. The thermostat worked well although when the heat came on, the fan was loud enough to wake me the first few...We have had very good experiences at Holiday Inns Express in the past and were happy to learn there was a new one in Golden where we wanted to spend a few days during spring break. We booked an "executive suite" to be sure we'd have ample room and more than one comfortable chair (and it was affordable), and we did. There was also a sofa bed, a desk, and two TVs. There are a few reasons I didn't rate it "very good." The spacious bathroom had minimal counter space for storing one's cosmetics, medicines, etc. We could hear the footsteps of people above us, and at another time, we could hear someone talking from a nearby room, but fortunately, there was no disturbance after 10:00 P.M. This was surprising as it had not been our experience at other HIEs. The "kitchenette" included a mini-fridge and microwave, but no sink. Utensils had to be requested from the front desk. The decor, while it included nifty photos of historic sites nearby (unfortunately lacking labels), was depressingly bland--all blacks, browns, beiges, and grays with a rare punch of orange--perhaps it's just today's style. The king bed was comfortable although even the "soft" pillow was too big for me. We had to track down the housekeeper to get toilet and facial tissue. The thermostat worked well although when the heat came on, the fan was loud enough to wake me the first few times I heard it. We were in Room 306 which had four nice windows, three facing the mountains to the northwest, and the fourth more to the northeast. Unfortunately, you have to squint to focus on the view and avoid the parking lot and the big-box Golfsmith store in the foreground. The staff was very helpful and pleasant. I felt bad for the folks in the reception area as they had to stand at stations meant to be at seated height. The breakfast featured a variety of food that was pretty good (they ran out of bananas early). So, yeah, it was fine, but could be a lot better with a little effort.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have had very good experiences at Holiday Inns Express in the past and were happy to learn there was a new one in Golden where we wanted to spend a few days during spring break. We booked an "executive suite" to be sure we'd have ample room and more than one comfortable chair (and it was affordable), and we did. There was also a sofa bed, a desk, and two TVs. There are a few reasons I didn't rate it "very good." The spacious bathroom had minimal counter space for storing one's cosmetics, medicines, etc. We could hear the footsteps of people above us, and at another time, we could hear someone talking from a nearby room, but fortunately, there was no disturbance after 10:00 P.M. This was surprising as it had not been our experience at other HIEs. The "kitchenette" included a mini-fridge and microwave, but no sink. Utensils had to be requested from the front desk. The decor, while it included nifty photos of historic sites nearby (unfortunately lacking labels), was depressingly bland--all blacks, browns, beiges, and grays with a rare punch of orange--perhaps it's just today's style. The king bed was comfortable although even the "soft" pillow was too big for me. We had to track down the housekeeper to get toilet and facial tissue. The thermostat worked well although when the heat came on, the fan was loud enough to wake me the first few...We have had very good experiences at Holiday Inns Express in the past and were happy to learn there was a new one in Golden where we wanted to spend a few days during spring break. We booked an "executive suite" to be sure we'd have ample room and more than one comfortable chair (and it was affordable), and we did. There was also a sofa bed, a desk, and two TVs. There are a few reasons I didn't rate it "very good." The spacious bathroom had minimal counter space for storing one's cosmetics, medicines, etc. We could hear the footsteps of people above us, and at another time, we could hear someone talking from a nearby room, but fortunately, there was no disturbance after 10:00 P.M. This was surprising as it had not been our experience at other HIEs. The "kitchenette" included a mini-fridge and microwave, but no sink. Utensils had to be requested from the front desk. The decor, while it included nifty photos of historic sites nearby (unfortunately lacking labels), was depressingly bland--all blacks, browns, beiges, and grays with a rare punch of orange--perhaps it's just today's style. The king bed was comfortable although even the "soft" pillow was too big for me. We had to track down the housekeeper to get toilet and facial tissue. The thermostat worked well although when the heat came on, the fan was loud enough to wake me the first few times I heard it. We were in Room 306 which had four nice windows, three facing the mountains to the northwest, and the fourth more to the northeast. Unfortunately, you have to squint to focus on the view and avoid the parking lot and the big-box Golfsmith store in the foreground. The staff was very helpful and pleasant. I felt bad for the folks in the reception area as they had to stand at stations meant to be at seated height. The breakfast featured a variety of food that was pretty good (they ran out of bananas early). So, yeah, it was fine, but could be a lot better with a little effort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r355066736-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>355066736</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Quick trip eggslent stay</t>
+  </si>
+  <si>
+    <t>Needed a place in Denver but wanted some space quiet and not cost a $$$. Great new hotel nice diggs. There are a few local places to eat nearby. Goldlen is jus s few minutes away snd it loo L s lije a lot of placesvto see.MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a place in Denver but wanted some space quiet and not cost a $$$. Great new hotel nice diggs. There are a few local places to eat nearby. Goldlen is jus s few minutes away snd it loo L s lije a lot of placesvto see.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r351546573-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1620,6 +2458,51 @@
     <t>We flew into Denver on an evening flight and did not want to drive up to the mountains at night, so I booked this Holiday Inn Express on IHG points, and it was one of the nicer Express properties I have ever seen (I'm IHG Spire Elite too).  Convenient location, close to food and highways.  The rooms and breakfast area are very attractive.  And the breakfast was top notch for our family.  Numerous choices of eggs, pancakes, fruits, etc.  I will not hesitate to use this itinerary again and stay over at this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r347429527-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>347429527</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Stayed overnight here after a long day travelling from UK on our way to the mountains.A 40 min drive from DIA and a few minutes once you leave the I70.The hotel is only a few months old ( Nov 2015 ) and as you would expect everything is very new. The beds are exceptionally comfortable and the rooms spacious.Breakfast is very well presented and a good choice is on offer.However,the main thing which I look for is good service and the staff were exceptional and extremely friendly .The Assistant General Manager , Michael Bauer, couldn't have been more helpful. A big Thanks from the Davenport family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amber A, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Stayed overnight here after a long day travelling from UK on our way to the mountains.A 40 min drive from DIA and a few minutes once you leave the I70.The hotel is only a few months old ( Nov 2015 ) and as you would expect everything is very new. The beds are exceptionally comfortable and the rooms spacious.Breakfast is very well presented and a good choice is on offer.However,the main thing which I look for is good service and the staff were exceptional and extremely friendly .The Assistant General Manager , Michael Bauer, couldn't have been more helpful. A big Thanks from the Davenport family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r338808906-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>338808906</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Came to the Denver area for a week. We stayed all over the place including one night in Golden, at this Holiday Inn Express. No complaints at all about this property. Excellent room, wonderful staff, even took advantage of the free breakfast! Highly recommended if staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Came to the Denver area for a week. We stayed all over the place including one night in Golden, at this Holiday Inn Express. No complaints at all about this property. Excellent room, wonderful staff, even took advantage of the free breakfast! Highly recommended if staying in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r338528490-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1689,6 +2572,55 @@
     <t>We recently spent two nights at this brand new hotel. Everything was excellent. The staff was pleasant, the room was quiet. Normally I wear ear plugs at hotels but they were not needed here. The room and bedding were very clean. The bathroom was very clean and large.The breakfast was the normal HIX fare, but was hot and there was plenty of food available. This is our new go-to hotel while visiting family in the Golden areaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r330351102-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>330351102</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Struck Gold in Golden</t>
+  </si>
+  <si>
+    <t>I simply can't say enough about my fabulous stay at the Holiday Inn Express in Golden.  To start, this hotel is BRAND NEW, as in less than a few weeks old, and it shows!  From the mountainous looking lobby/foyer with stone accents and delicate trim work, to very attentive staff members, this hotel really impresses!  I was also put in a corner room king suite that was huge! The room also featured excellent views of the mountains and we had a very strong Wifi connection, perfect for getting some work done.  Last but not least, the breakfast will keep you going strong all day--be sure to snag some biscuits and gravy. PS don't forget your swim trunks so you can try the pool/hot tubMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>HIX MGMT G, Manager at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>I simply can't say enough about my fabulous stay at the Holiday Inn Express in Golden.  To start, this hotel is BRAND NEW, as in less than a few weeks old, and it shows!  From the mountainous looking lobby/foyer with stone accents and delicate trim work, to very attentive staff members, this hotel really impresses!  I was also put in a corner room king suite that was huge! The room also featured excellent views of the mountains and we had a very strong Wifi connection, perfect for getting some work done.  Last but not least, the breakfast will keep you going strong all day--be sure to snag some biscuits and gravy. PS don't forget your swim trunks so you can try the pool/hot tubMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r329399447-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>329399447</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t>Won't return, ever.</t>
+  </si>
+  <si>
+    <t>Our family which includes three young children stayed at this location the night before Thanksgiving. While we appreciate properties who place an importance on cleanliness, the quality of customer service in any location is our primary factor in forming an assessment.  Unfortunately, the service here was some of the worst we have ever encountered.
+To begin, despite a minimal attendance at breakfast (as it was quite apparent from check-in the night before that there were few others staying here), many of the staple foods were completely gone before 9 am.  While this would not have been such a terrible thing, the staff was VERY put off by any inquiries on additional items.  Eye-rolling, curt communication, and making your guests feel as if they are greatly inconveniencing you isn't at all welcoming especially on a special holiday morning. (Thanksgiving Day) Sadly, this was only the tip of the iceberg.
+Any parent who has traveled long distances with multiple children can relate with the challenges that may arise. On this particular day, we had a situation where two of us were battling ill stomachs requiring extended time in the single bathroom.  While we were admittedly running behind schedule for checking-out, this wasn't something we could have easily 'rushed along'. The situation alone was bad enough, but then to have a staff member come pounding on our door at 11:01 am and rudely YELLING at us ("Check-out is at 11! We've waited long...Our family which includes three young children stayed at this location the night before Thanksgiving. While we appreciate properties who place an importance on cleanliness, the quality of customer service in any location is our primary factor in forming an assessment.  Unfortunately, the service here was some of the worst we have ever encountered.To begin, despite a minimal attendance at breakfast (as it was quite apparent from check-in the night before that there were few others staying here), many of the staple foods were completely gone before 9 am.  While this would not have been such a terrible thing, the staff was VERY put off by any inquiries on additional items.  Eye-rolling, curt communication, and making your guests feel as if they are greatly inconveniencing you isn't at all welcoming especially on a special holiday morning. (Thanksgiving Day) Sadly, this was only the tip of the iceberg.Any parent who has traveled long distances with multiple children can relate with the challenges that may arise. On this particular day, we had a situation where two of us were battling ill stomachs requiring extended time in the single bathroom.  While we were admittedly running behind schedule for checking-out, this wasn't something we could have easily 'rushed along'. The situation alone was bad enough, but then to have a staff member come pounding on our door at 11:01 am and rudely YELLING at us ("Check-out is at 11! We've waited long enough…you need to leave NOW! We have this room rented to someone else and they've been here waiting forever on you!")  without so much as a question if we were having any sort of trouble, without allowing us a moment to explain the circumstances, or even a genuine and considerate offer to help in any way, was extremely hurtful and upsetting.Then, as we exited into the lobby at 11:30 am (yes admittedly 30 minutes AFTER 'check-out', the front staff was assisting incoming guests who were apparently those promised an early check-in into our same room.  The guests' displays of immaturity and lack of patience and compassion were only matched by the front staff when rather than a kind farewell, statement of thanks, or a holiday well-wishing, we received furrowed-brow stare-downs and a shameful suggestive tapping on a wristwatch.  The embarrassing shouting match with strangers in the foyer which ensued wasn't at all how we anticipated our Thanksgiving morning…and, regrettably, was something that could have been avoided altogether had the staff made a better decision regarding their booking process.  The real kicker of all this is that this hotel, which is probably in the 60-80 unit category, was less than 25% occupied.  When we checked in the night prior, there were MAYBE 10 cars in the parking lot (and likely one of those was a staff members!) and when we went out in the morning to de-ice the car, there were less than 6 cars remaining.  How logical is it to book a room two consecutive nights to two different families while promising the second party an early check-in when the rest of your rooms are EMPTY?!As consumers who make their purchasing decisions based on value, one of the key drivers for choosing to stay at an IHG property in spite of paying a 20-30% premium over comparable properties is the expectation or the anticipation the service will be superior.  This location was more than a disappointment.  On the bright side, it provided a nice opportunity to discuss patience and manners with my three children under the age of 10.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family which includes three young children stayed at this location the night before Thanksgiving. While we appreciate properties who place an importance on cleanliness, the quality of customer service in any location is our primary factor in forming an assessment.  Unfortunately, the service here was some of the worst we have ever encountered.
+To begin, despite a minimal attendance at breakfast (as it was quite apparent from check-in the night before that there were few others staying here), many of the staple foods were completely gone before 9 am.  While this would not have been such a terrible thing, the staff was VERY put off by any inquiries on additional items.  Eye-rolling, curt communication, and making your guests feel as if they are greatly inconveniencing you isn't at all welcoming especially on a special holiday morning. (Thanksgiving Day) Sadly, this was only the tip of the iceberg.
+Any parent who has traveled long distances with multiple children can relate with the challenges that may arise. On this particular day, we had a situation where two of us were battling ill stomachs requiring extended time in the single bathroom.  While we were admittedly running behind schedule for checking-out, this wasn't something we could have easily 'rushed along'. The situation alone was bad enough, but then to have a staff member come pounding on our door at 11:01 am and rudely YELLING at us ("Check-out is at 11! We've waited long...Our family which includes three young children stayed at this location the night before Thanksgiving. While we appreciate properties who place an importance on cleanliness, the quality of customer service in any location is our primary factor in forming an assessment.  Unfortunately, the service here was some of the worst we have ever encountered.To begin, despite a minimal attendance at breakfast (as it was quite apparent from check-in the night before that there were few others staying here), many of the staple foods were completely gone before 9 am.  While this would not have been such a terrible thing, the staff was VERY put off by any inquiries on additional items.  Eye-rolling, curt communication, and making your guests feel as if they are greatly inconveniencing you isn't at all welcoming especially on a special holiday morning. (Thanksgiving Day) Sadly, this was only the tip of the iceberg.Any parent who has traveled long distances with multiple children can relate with the challenges that may arise. On this particular day, we had a situation where two of us were battling ill stomachs requiring extended time in the single bathroom.  While we were admittedly running behind schedule for checking-out, this wasn't something we could have easily 'rushed along'. The situation alone was bad enough, but then to have a staff member come pounding on our door at 11:01 am and rudely YELLING at us ("Check-out is at 11! We've waited long enough…you need to leave NOW! We have this room rented to someone else and they've been here waiting forever on you!")  without so much as a question if we were having any sort of trouble, without allowing us a moment to explain the circumstances, or even a genuine and considerate offer to help in any way, was extremely hurtful and upsetting.Then, as we exited into the lobby at 11:30 am (yes admittedly 30 minutes AFTER 'check-out', the front staff was assisting incoming guests who were apparently those promised an early check-in into our same room.  The guests' displays of immaturity and lack of patience and compassion were only matched by the front staff when rather than a kind farewell, statement of thanks, or a holiday well-wishing, we received furrowed-brow stare-downs and a shameful suggestive tapping on a wristwatch.  The embarrassing shouting match with strangers in the foyer which ensued wasn't at all how we anticipated our Thanksgiving morning…and, regrettably, was something that could have been avoided altogether had the staff made a better decision regarding their booking process.  The real kicker of all this is that this hotel, which is probably in the 60-80 unit category, was less than 25% occupied.  When we checked in the night prior, there were MAYBE 10 cars in the parking lot (and likely one of those was a staff members!) and when we went out in the morning to de-ice the car, there were less than 6 cars remaining.  How logical is it to book a room two consecutive nights to two different families while promising the second party an early check-in when the rest of your rooms are EMPTY?!As consumers who make their purchasing decisions based on value, one of the key drivers for choosing to stay at an IHG property in spite of paying a 20-30% premium over comparable properties is the expectation or the anticipation the service will be superior.  This location was more than a disappointment.  On the bright side, it provided a nice opportunity to discuss patience and manners with my three children under the age of 10.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d7621238-r326384758-Holiday_Inn_Express_Suites_Denver_West_Golden-Golden_Colorado.html</t>
   </si>
   <si>
@@ -1702,9 +2634,6 @@
   </si>
   <si>
     <t>The fact that this hotel was less than one week old when we spent a night there, may have something to do with the wonderful experience we had.   A joyful welcome from the from the front desk (Jesse, I think), an exquisite suite, very helpful service and good advice re local restaurant for dinner.  A restful evening and a very comfortable bed.  In the morning, no fewer than 4 employees wished us a good morning and asked if we needed anything or if there was anything else they could do for us.  Breakfast room was clean, many staff and lots of choices for breakfast. We would go out of our way to stay here again.MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2015</t>
   </si>
   <si>
     <t>Jackie L, Director of Sales at Holiday Inn Express &amp; Suites Denver West - Golden, responded to this reviewResponded November 17, 2015</t>
@@ -2248,7 +3177,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2258,14 +3187,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2309,7 +3234,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -2372,17 +3297,21 @@
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -2398,56 +3327,44 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
       <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2463,7 +3380,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2472,45 +3389,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -2526,7 +3437,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2535,25 +3446,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2567,7 +3478,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2583,7 +3494,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2592,47 +3503,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" t="s">
-        <v>96</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -2648,7 +3551,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2657,25 +3560,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2686,14 +3589,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X9" t="s">
-        <v>106</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -2709,7 +3608,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2718,39 +3617,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -2766,7 +3673,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2775,31 +3682,33 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -2808,14 +3717,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>120</v>
-      </c>
-      <c r="X11" t="s">
-        <v>121</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -2831,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2840,49 +3745,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>120</v>
-      </c>
-      <c r="X12" t="s">
-        <v>121</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -2898,7 +3793,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2907,34 +3802,34 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>4</v>
@@ -2945,7 +3840,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -2961,7 +3856,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2970,22 +3865,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -2993,20 +3888,20 @@
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>125</v>
+      </c>
+      <c r="X14" t="s">
+        <v>126</v>
+      </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -3022,7 +3917,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3031,39 +3926,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -3079,7 +3982,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3088,22 +3991,26 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -3114,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="X16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
@@ -3136,7 +4043,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3145,26 +4052,22 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="N17" t="s">
-        <v>162</v>
-      </c>
-      <c r="O17" t="s">
-        <v>104</v>
-      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -3174,10 +4077,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>125</v>
+      </c>
+      <c r="X17" t="s">
+        <v>126</v>
+      </c>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
@@ -3193,7 +4100,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3202,47 +4109,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="X18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -3258,7 +4167,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3267,47 +4176,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
         <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="X19" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
@@ -3323,7 +4232,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3332,35 +4241,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>156</v>
+      </c>
+      <c r="X20" t="s">
+        <v>157</v>
+      </c>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -3376,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3385,39 +4306,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>156</v>
+      </c>
+      <c r="X21" t="s">
+        <v>157</v>
+      </c>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -3433,7 +4364,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3442,39 +4373,45 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
@@ -3490,7 +4427,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3499,22 +4436,26 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+      <c r="N23" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" t="s">
+        <v>65</v>
+      </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3527,7 +4468,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -3543,7 +4484,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3552,49 +4493,35 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>194</v>
-      </c>
-      <c r="O24" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" t="n">
         <v>4</v>
       </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>205</v>
-      </c>
-      <c r="X24" t="s">
-        <v>206</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
@@ -3610,7 +4537,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3619,39 +4546,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -3664,10 +4595,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3676,49 +4607,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>219</v>
-      </c>
-      <c r="O26" t="s">
-        <v>104</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
@@ -3731,61 +4652,51 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
         <v>213</v>
       </c>
-      <c r="F27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" t="s">
-        <v>225</v>
-      </c>
-      <c r="K27" t="s">
-        <v>226</v>
-      </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>228</v>
-      </c>
-      <c r="O27" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="X27" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
@@ -3798,10 +4709,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3810,25 +4721,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3840,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="X28" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
@@ -3859,10 +4770,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3871,49 +4782,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>245</v>
-      </c>
-      <c r="X29" t="s">
-        <v>246</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -3926,10 +4827,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3938,47 +4839,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>245</v>
-      </c>
-      <c r="X30" t="s">
-        <v>246</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
@@ -3991,10 +4884,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4003,43 +4896,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="X31" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
@@ -4052,10 +4949,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4064,49 +4961,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="X32" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
@@ -4119,10 +5014,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4131,25 +5026,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4161,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="X33" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
@@ -4180,10 +5075,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4192,28 +5087,28 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="O34" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
         <v>5</v>
@@ -4222,19 +5117,15 @@
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>285</v>
-      </c>
-      <c r="X34" t="s">
-        <v>286</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -4247,10 +5138,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4259,47 +5150,35 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s">
-        <v>293</v>
-      </c>
-      <c r="O35" t="s">
-        <v>104</v>
-      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>294</v>
-      </c>
-      <c r="X35" t="s">
-        <v>295</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36">
@@ -4312,10 +5191,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4324,22 +5203,22 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
@@ -4353,14 +5232,10 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>302</v>
-      </c>
-      <c r="X36" t="s">
-        <v>303</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
@@ -4373,10 +5248,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4385,47 +5260,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="J37" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="K37" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="O37" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>310</v>
-      </c>
-      <c r="X37" t="s">
-        <v>311</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38">
@@ -4438,10 +5305,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4450,25 +5317,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="J38" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4479,14 +5346,10 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>319</v>
-      </c>
-      <c r="X38" t="s">
-        <v>320</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39">
@@ -4499,10 +5362,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4511,34 +5374,32 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4546,14 +5407,10 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>327</v>
-      </c>
-      <c r="X39" t="s">
-        <v>328</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
@@ -4566,10 +5423,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4578,26 +5435,22 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="J40" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
-      <c r="N40" t="s">
-        <v>318</v>
-      </c>
-      <c r="O40" t="s">
-        <v>94</v>
-      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
@@ -4607,14 +5460,10 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>335</v>
-      </c>
-      <c r="X40" t="s">
-        <v>336</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41">
@@ -4627,10 +5476,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4639,43 +5488,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="O41" t="s">
-        <v>104</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="X41" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="Y41" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42">
@@ -4688,10 +5543,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4700,22 +5555,22 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="J42" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="O42" t="s">
         <v>65</v>
@@ -4729,14 +5584,10 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>351</v>
-      </c>
-      <c r="X42" t="s">
-        <v>352</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43">
@@ -4749,10 +5600,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4761,49 +5612,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="X43" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="Y43" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44">
@@ -4816,10 +5667,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4828,49 +5679,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="J44" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="K44" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="X44" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="Y44" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45">
@@ -4883,10 +5732,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4895,43 +5744,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="J45" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
-      <c r="P45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="X45" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="Y45" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
@@ -4944,10 +5799,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4956,47 +5811,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="J46" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="K46" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="X46" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="Y46" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47">
@@ -5009,10 +5866,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5021,25 +5878,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="J47" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="L47" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="O47" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5051,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="X47" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="Y47" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48">
@@ -5070,10 +5927,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5082,49 +5939,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="J48" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="K48" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="X48" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="Y48" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49">
@@ -5137,10 +5988,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5149,25 +6000,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="J49" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="K49" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5179,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="X49" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="Y49" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50">
@@ -5198,10 +6049,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5210,49 +6061,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="J50" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="K50" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="O50" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
       <c r="R50" t="s"/>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="X50" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="Y50" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51">
@@ -5265,10 +6116,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5277,43 +6128,47 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="J51" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>427</v>
+        <v>353</v>
       </c>
       <c r="X51" t="s">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="Y51" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52">
@@ -5326,10 +6181,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5338,25 +6193,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="J52" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>401</v>
+        <v>288</v>
       </c>
       <c r="O52" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5368,13 +6223,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="X52" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53">
@@ -5387,10 +6242,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5399,25 +6254,25 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="J53" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="K53" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>401</v>
+        <v>288</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5429,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="X53" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Y53" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54">
@@ -5448,10 +6303,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5460,49 +6315,39 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="J54" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="K54" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s">
-        <v>426</v>
-      </c>
-      <c r="O54" t="s">
-        <v>94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>4</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="X54" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55">
@@ -5515,10 +6360,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5527,49 +6372,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="J55" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="K55" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P55" t="s"/>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="X55" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="Y55" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56">
@@ -5582,10 +6427,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5594,25 +6439,25 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="J56" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="K56" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s">
-        <v>466</v>
+        <v>412</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="O56" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5624,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>467</v>
+        <v>405</v>
       </c>
       <c r="X56" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="Y56" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57">
@@ -5643,10 +6488,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5655,43 +6500,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="J57" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="K57" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="O57" t="s">
-        <v>104</v>
-      </c>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="X57" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="Y57" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58">
@@ -5704,10 +6555,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5716,31 +6567,33 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="J58" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="K58" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="O58" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
       <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -5750,13 +6603,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="X58" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="Y58" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59">
@@ -5769,10 +6622,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5781,47 +6634,43 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="J59" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="K59" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="O59" t="s">
         <v>65</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+      <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="X59" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="Y59" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60">
@@ -5834,10 +6683,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5846,34 +6695,32 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="J60" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="K60" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="L60" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="O60" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
         <v>5</v>
       </c>
       <c r="R60" t="s"/>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
         <v>5</v>
@@ -5882,13 +6729,13 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="X60" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="Y60" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61">
@@ -5901,10 +6748,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5913,49 +6760,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="J61" t="s">
-        <v>503</v>
+        <v>450</v>
       </c>
       <c r="K61" t="s">
-        <v>504</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s">
-        <v>505</v>
+        <v>452</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
+      <c r="R61" t="s"/>
       <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="X61" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="Y61" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62">
@@ -5968,10 +6809,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5980,43 +6821,47 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="J62" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="K62" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="L62" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>514</v>
+        <v>444</v>
       </c>
       <c r="O62" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
       <c r="R62" t="s"/>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="X62" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="Y62" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63">
@@ -6029,10 +6874,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>518</v>
+        <v>464</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6041,49 +6886,43 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
       <c r="J63" t="s">
-        <v>520</v>
+        <v>466</v>
       </c>
       <c r="K63" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="L63" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>514</v>
+        <v>444</v>
       </c>
       <c r="O63" t="s">
-        <v>104</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
+      <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="X63" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="Y63" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64">
@@ -6096,10 +6935,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6108,49 +6947,49 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>525</v>
+        <v>473</v>
       </c>
       <c r="J64" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="K64" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
       <c r="L64" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="P64" t="s"/>
-      <c r="Q64" t="n">
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
         <v>4</v>
       </c>
-      <c r="R64" t="s"/>
       <c r="S64" t="n">
         <v>5</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>529</v>
+        <v>478</v>
       </c>
       <c r="X64" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="Y64" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65">
@@ -6163,10 +7002,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6175,25 +7014,25 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="J65" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
       <c r="K65" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="L65" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6205,13 +7044,13 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="X65" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="Y65" t="s">
-        <v>540</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66">
@@ -6224,10 +7063,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>541</v>
+        <v>487</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6236,49 +7075,49 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="J66" t="s">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="K66" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="L66" t="s">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="O66" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>4</v>
-      </c>
-      <c r="R66" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
       <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>546</v>
+        <v>492</v>
       </c>
       <c r="X66" t="s">
-        <v>547</v>
+        <v>493</v>
       </c>
       <c r="Y66" t="s">
-        <v>548</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67">
@@ -6291,10 +7130,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>549</v>
+        <v>495</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6303,49 +7142,43 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="J67" t="s">
-        <v>551</v>
+        <v>497</v>
       </c>
       <c r="K67" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
       <c r="L67" t="s">
-        <v>553</v>
+        <v>499</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
-      <c r="R67" t="n">
-        <v>5</v>
-      </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="n">
-        <v>5</v>
-      </c>
+      <c r="U67" t="s"/>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="X67" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="Y67" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68">
@@ -6358,10 +7191,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6370,49 +7203,3038 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="J68" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="K68" t="s">
-        <v>558</v>
+        <v>506</v>
       </c>
       <c r="L68" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>560</v>
+        <v>477</v>
       </c>
       <c r="O68" t="s">
-        <v>104</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
+      <c r="R68" t="s"/>
       <c r="S68" t="s"/>
       <c r="T68" t="s"/>
-      <c r="U68" t="n">
-        <v>5</v>
-      </c>
+      <c r="U68" t="s"/>
       <c r="V68" t="n">
         <v>0</v>
       </c>
       <c r="W68" t="s">
+        <v>508</v>
+      </c>
+      <c r="X68" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>511</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>512</v>
+      </c>
+      <c r="J69" t="s">
+        <v>513</v>
+      </c>
+      <c r="K69" t="s">
+        <v>514</v>
+      </c>
+      <c r="L69" t="s">
+        <v>515</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>516</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>508</v>
+      </c>
+      <c r="X69" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>518</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>519</v>
+      </c>
+      <c r="J70" t="s">
+        <v>520</v>
+      </c>
+      <c r="K70" t="s">
+        <v>521</v>
+      </c>
+      <c r="L70" t="s">
+        <v>522</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>477</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>523</v>
+      </c>
+      <c r="X70" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>526</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>527</v>
+      </c>
+      <c r="J71" t="s">
+        <v>528</v>
+      </c>
+      <c r="K71" t="s">
+        <v>529</v>
+      </c>
+      <c r="L71" t="s">
+        <v>530</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>477</v>
+      </c>
+      <c r="O71" t="s">
+        <v>81</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>531</v>
+      </c>
+      <c r="X71" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>535</v>
+      </c>
+      <c r="J72" t="s">
+        <v>536</v>
+      </c>
+      <c r="K72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" t="s">
+        <v>538</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>539</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>540</v>
+      </c>
+      <c r="X72" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>543</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>544</v>
+      </c>
+      <c r="J73" t="s">
+        <v>536</v>
+      </c>
+      <c r="K73" t="s">
+        <v>545</v>
+      </c>
+      <c r="L73" t="s">
+        <v>546</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>540</v>
+      </c>
+      <c r="X73" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>548</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>549</v>
+      </c>
+      <c r="J74" t="s">
+        <v>550</v>
+      </c>
+      <c r="K74" t="s">
+        <v>551</v>
+      </c>
+      <c r="L74" t="s">
+        <v>552</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>539</v>
+      </c>
+      <c r="O74" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>553</v>
+      </c>
+      <c r="X74" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>556</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>557</v>
+      </c>
+      <c r="J75" t="s">
+        <v>558</v>
+      </c>
+      <c r="K75" t="s">
+        <v>559</v>
+      </c>
+      <c r="L75" t="s">
+        <v>560</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>539</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>553</v>
+      </c>
+      <c r="X75" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y75" t="s">
         <v>561</v>
       </c>
-      <c r="X68" t="s">
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
         <v>562</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
         <v>563</v>
+      </c>
+      <c r="J76" t="s">
+        <v>564</v>
+      </c>
+      <c r="K76" t="s">
+        <v>565</v>
+      </c>
+      <c r="L76" t="s">
+        <v>566</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>539</v>
+      </c>
+      <c r="O76" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>567</v>
+      </c>
+      <c r="X76" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>570</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>571</v>
+      </c>
+      <c r="J77" t="s">
+        <v>572</v>
+      </c>
+      <c r="K77" t="s">
+        <v>573</v>
+      </c>
+      <c r="L77" t="s">
+        <v>574</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>575</v>
+      </c>
+      <c r="O77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>576</v>
+      </c>
+      <c r="X77" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>579</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>580</v>
+      </c>
+      <c r="J78" t="s">
+        <v>581</v>
+      </c>
+      <c r="K78" t="s">
+        <v>582</v>
+      </c>
+      <c r="L78" t="s">
+        <v>583</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>539</v>
+      </c>
+      <c r="O78" t="s">
+        <v>81</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>584</v>
+      </c>
+      <c r="X78" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>587</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>588</v>
+      </c>
+      <c r="J79" t="s">
+        <v>589</v>
+      </c>
+      <c r="K79" t="s">
+        <v>590</v>
+      </c>
+      <c r="L79" t="s">
+        <v>591</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>575</v>
+      </c>
+      <c r="O79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>592</v>
+      </c>
+      <c r="X79" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>595</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>596</v>
+      </c>
+      <c r="J80" t="s">
+        <v>597</v>
+      </c>
+      <c r="K80" t="s">
+        <v>598</v>
+      </c>
+      <c r="L80" t="s">
+        <v>599</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>539</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>600</v>
+      </c>
+      <c r="X80" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>603</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>604</v>
+      </c>
+      <c r="J81" t="s">
+        <v>605</v>
+      </c>
+      <c r="K81" t="s">
+        <v>606</v>
+      </c>
+      <c r="L81" t="s">
+        <v>607</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>516</v>
+      </c>
+      <c r="O81" t="s">
+        <v>133</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>608</v>
+      </c>
+      <c r="X81" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>611</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>612</v>
+      </c>
+      <c r="J82" t="s">
+        <v>613</v>
+      </c>
+      <c r="K82" t="s">
+        <v>614</v>
+      </c>
+      <c r="L82" t="s">
+        <v>615</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>516</v>
+      </c>
+      <c r="O82" t="s">
+        <v>65</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>616</v>
+      </c>
+      <c r="X82" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>619</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>620</v>
+      </c>
+      <c r="J83" t="s">
+        <v>621</v>
+      </c>
+      <c r="K83" t="s">
+        <v>622</v>
+      </c>
+      <c r="L83" t="s">
+        <v>623</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>516</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>624</v>
+      </c>
+      <c r="X83" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>627</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>628</v>
+      </c>
+      <c r="J84" t="s">
+        <v>629</v>
+      </c>
+      <c r="K84" t="s">
+        <v>630</v>
+      </c>
+      <c r="L84" t="s">
+        <v>631</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>516</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>624</v>
+      </c>
+      <c r="X84" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>633</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>634</v>
+      </c>
+      <c r="J85" t="s">
+        <v>635</v>
+      </c>
+      <c r="K85" t="s">
+        <v>636</v>
+      </c>
+      <c r="L85" t="s">
+        <v>637</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>516</v>
+      </c>
+      <c r="O85" t="s">
+        <v>81</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>638</v>
+      </c>
+      <c r="X85" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>641</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>642</v>
+      </c>
+      <c r="J86" t="s">
+        <v>643</v>
+      </c>
+      <c r="K86" t="s">
+        <v>644</v>
+      </c>
+      <c r="L86" t="s">
+        <v>645</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>646</v>
+      </c>
+      <c r="O86" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>647</v>
+      </c>
+      <c r="X86" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>650</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>651</v>
+      </c>
+      <c r="J87" t="s">
+        <v>652</v>
+      </c>
+      <c r="K87" t="s">
+        <v>653</v>
+      </c>
+      <c r="L87" t="s">
+        <v>654</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>516</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>655</v>
+      </c>
+      <c r="X87" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>658</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>659</v>
+      </c>
+      <c r="J88" t="s">
+        <v>652</v>
+      </c>
+      <c r="K88" t="s">
+        <v>660</v>
+      </c>
+      <c r="L88" t="s">
+        <v>661</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>516</v>
+      </c>
+      <c r="O88" t="s">
+        <v>81</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>655</v>
+      </c>
+      <c r="X88" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>663</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>664</v>
+      </c>
+      <c r="J89" t="s">
+        <v>665</v>
+      </c>
+      <c r="K89" t="s">
+        <v>666</v>
+      </c>
+      <c r="L89" t="s">
+        <v>667</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>516</v>
+      </c>
+      <c r="O89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>668</v>
+      </c>
+      <c r="X89" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>671</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>672</v>
+      </c>
+      <c r="J90" t="s">
+        <v>673</v>
+      </c>
+      <c r="K90" t="s">
+        <v>674</v>
+      </c>
+      <c r="L90" t="s">
+        <v>675</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>516</v>
+      </c>
+      <c r="O90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>676</v>
+      </c>
+      <c r="X90" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>679</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>680</v>
+      </c>
+      <c r="J91" t="s">
+        <v>681</v>
+      </c>
+      <c r="K91" t="s">
+        <v>682</v>
+      </c>
+      <c r="L91" t="s">
+        <v>683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>646</v>
+      </c>
+      <c r="O91" t="s">
+        <v>133</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>684</v>
+      </c>
+      <c r="X91" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>687</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>688</v>
+      </c>
+      <c r="J92" t="s">
+        <v>689</v>
+      </c>
+      <c r="K92" t="s">
+        <v>690</v>
+      </c>
+      <c r="L92" t="s">
+        <v>691</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>646</v>
+      </c>
+      <c r="O92" t="s">
+        <v>65</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>692</v>
+      </c>
+      <c r="X92" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>695</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>696</v>
+      </c>
+      <c r="J93" t="s">
+        <v>697</v>
+      </c>
+      <c r="K93" t="s">
+        <v>698</v>
+      </c>
+      <c r="L93" t="s">
+        <v>699</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>646</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>700</v>
+      </c>
+      <c r="X93" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>703</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>704</v>
+      </c>
+      <c r="J94" t="s">
+        <v>697</v>
+      </c>
+      <c r="K94" t="s">
+        <v>705</v>
+      </c>
+      <c r="L94" t="s">
+        <v>706</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>646</v>
+      </c>
+      <c r="O94" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>707</v>
+      </c>
+      <c r="X94" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>710</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>711</v>
+      </c>
+      <c r="J95" t="s">
+        <v>712</v>
+      </c>
+      <c r="K95" t="s">
+        <v>713</v>
+      </c>
+      <c r="L95" t="s">
+        <v>714</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>646</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>715</v>
+      </c>
+      <c r="X95" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>718</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>719</v>
+      </c>
+      <c r="J96" t="s">
+        <v>720</v>
+      </c>
+      <c r="K96" t="s">
+        <v>721</v>
+      </c>
+      <c r="L96" t="s">
+        <v>722</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>646</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>700</v>
+      </c>
+      <c r="X96" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>724</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>725</v>
+      </c>
+      <c r="J97" t="s">
+        <v>726</v>
+      </c>
+      <c r="K97" t="s">
+        <v>727</v>
+      </c>
+      <c r="L97" t="s">
+        <v>728</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>729</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>730</v>
+      </c>
+      <c r="X97" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>733</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>734</v>
+      </c>
+      <c r="J98" t="s">
+        <v>735</v>
+      </c>
+      <c r="K98" t="s">
+        <v>736</v>
+      </c>
+      <c r="L98" t="s">
+        <v>737</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>729</v>
+      </c>
+      <c r="O98" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>738</v>
+      </c>
+      <c r="X98" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>741</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>742</v>
+      </c>
+      <c r="J99" t="s">
+        <v>743</v>
+      </c>
+      <c r="K99" t="s">
+        <v>744</v>
+      </c>
+      <c r="L99" t="s">
+        <v>745</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>729</v>
+      </c>
+      <c r="O99" t="s">
+        <v>178</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>738</v>
+      </c>
+      <c r="X99" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>747</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>748</v>
+      </c>
+      <c r="J100" t="s">
+        <v>749</v>
+      </c>
+      <c r="K100" t="s">
+        <v>750</v>
+      </c>
+      <c r="L100" t="s">
+        <v>751</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>575</v>
+      </c>
+      <c r="O100" t="s">
+        <v>81</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>752</v>
+      </c>
+      <c r="X100" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>755</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>756</v>
+      </c>
+      <c r="J101" t="s">
+        <v>757</v>
+      </c>
+      <c r="K101" t="s">
+        <v>758</v>
+      </c>
+      <c r="L101" t="s">
+        <v>759</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>575</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>752</v>
+      </c>
+      <c r="X101" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>761</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>762</v>
+      </c>
+      <c r="J102" t="s">
+        <v>763</v>
+      </c>
+      <c r="K102" t="s">
+        <v>764</v>
+      </c>
+      <c r="L102" t="s">
+        <v>765</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>575</v>
+      </c>
+      <c r="O102" t="s">
+        <v>65</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>766</v>
+      </c>
+      <c r="X102" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>769</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>770</v>
+      </c>
+      <c r="J103" t="s">
+        <v>771</v>
+      </c>
+      <c r="K103" t="s">
+        <v>772</v>
+      </c>
+      <c r="L103" t="s">
+        <v>773</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>575</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>752</v>
+      </c>
+      <c r="X103" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>775</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>776</v>
+      </c>
+      <c r="J104" t="s">
+        <v>777</v>
+      </c>
+      <c r="K104" t="s">
+        <v>778</v>
+      </c>
+      <c r="L104" t="s">
+        <v>779</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>575</v>
+      </c>
+      <c r="O104" t="s">
+        <v>133</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>752</v>
+      </c>
+      <c r="X104" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>781</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>782</v>
+      </c>
+      <c r="J105" t="s">
+        <v>783</v>
+      </c>
+      <c r="K105" t="s">
+        <v>784</v>
+      </c>
+      <c r="L105" t="s">
+        <v>785</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>786</v>
+      </c>
+      <c r="O105" t="s">
+        <v>81</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>787</v>
+      </c>
+      <c r="X105" t="s">
+        <v>788</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>790</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>791</v>
+      </c>
+      <c r="J106" t="s">
+        <v>792</v>
+      </c>
+      <c r="K106" t="s">
+        <v>793</v>
+      </c>
+      <c r="L106" t="s">
+        <v>794</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>786</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>787</v>
+      </c>
+      <c r="X106" t="s">
+        <v>788</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>796</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>797</v>
+      </c>
+      <c r="J107" t="s">
+        <v>798</v>
+      </c>
+      <c r="K107" t="s">
+        <v>799</v>
+      </c>
+      <c r="L107" t="s">
+        <v>800</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>786</v>
+      </c>
+      <c r="O107" t="s">
+        <v>65</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>801</v>
+      </c>
+      <c r="X107" t="s">
+        <v>802</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>804</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>805</v>
+      </c>
+      <c r="J108" t="s">
+        <v>806</v>
+      </c>
+      <c r="K108" t="s">
+        <v>807</v>
+      </c>
+      <c r="L108" t="s">
+        <v>808</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>786</v>
+      </c>
+      <c r="O108" t="s">
+        <v>65</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>809</v>
+      </c>
+      <c r="X108" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>812</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>813</v>
+      </c>
+      <c r="J109" t="s">
+        <v>814</v>
+      </c>
+      <c r="K109" t="s">
+        <v>815</v>
+      </c>
+      <c r="L109" t="s">
+        <v>816</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>817</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>809</v>
+      </c>
+      <c r="X109" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>819</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J110" t="s">
+        <v>821</v>
+      </c>
+      <c r="K110" t="s">
+        <v>822</v>
+      </c>
+      <c r="L110" t="s">
+        <v>823</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>824</v>
+      </c>
+      <c r="O110" t="s">
+        <v>65</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>825</v>
+      </c>
+      <c r="X110" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>828</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>829</v>
+      </c>
+      <c r="J111" t="s">
+        <v>830</v>
+      </c>
+      <c r="K111" t="s">
+        <v>831</v>
+      </c>
+      <c r="L111" t="s">
+        <v>832</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>824</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>833</v>
+      </c>
+      <c r="X111" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>836</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>837</v>
+      </c>
+      <c r="J112" t="s">
+        <v>838</v>
+      </c>
+      <c r="K112" t="s">
+        <v>839</v>
+      </c>
+      <c r="L112" t="s">
+        <v>840</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>824</v>
+      </c>
+      <c r="O112" t="s">
+        <v>65</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>833</v>
+      </c>
+      <c r="X112" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>842</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>843</v>
+      </c>
+      <c r="J113" t="s">
+        <v>844</v>
+      </c>
+      <c r="K113" t="s">
+        <v>845</v>
+      </c>
+      <c r="L113" t="s">
+        <v>846</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>847</v>
+      </c>
+      <c r="O113" t="s">
+        <v>133</v>
+      </c>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>848</v>
+      </c>
+      <c r="X113" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>851</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>852</v>
+      </c>
+      <c r="J114" t="s">
+        <v>853</v>
+      </c>
+      <c r="K114" t="s">
+        <v>854</v>
+      </c>
+      <c r="L114" t="s">
+        <v>855</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>847</v>
+      </c>
+      <c r="O114" t="s">
+        <v>65</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>848</v>
+      </c>
+      <c r="X114" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>64227</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>857</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>858</v>
+      </c>
+      <c r="J115" t="s">
+        <v>859</v>
+      </c>
+      <c r="K115" t="s">
+        <v>860</v>
+      </c>
+      <c r="L115" t="s">
+        <v>861</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>847</v>
+      </c>
+      <c r="O115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>862</v>
+      </c>
+      <c r="X115" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>
